--- a/UnitTest/[TEMPLATE-EN] TestPlan.xlsx
+++ b/UnitTest/[TEMPLATE-EN] TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{F71B5AA6-48D8-4B5B-8CCE-903D5431F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A3A0F3-A1CE-4ABF-9902-1DC758F3AE16}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{F71B5AA6-48D8-4B5B-8CCE-903D5431F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429B8240-82C0-4B6F-89BE-D976C522B2CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
@@ -640,7 +640,7 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t xml:space="preserve">Dư Vũ Mạnh Đức </t>
+    <t xml:space="preserve">Vũ Việt Anh </t>
   </si>
   <si>
     <t>Version</t>
@@ -1711,6 +1711,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1750,10 +1757,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1792,15 +1799,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1821,6 +1819,15 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1850,20 +1857,23 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1889,25 +1899,15 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2732,176 +2732,176 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3006,96 +3006,96 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="13" spans="1:8" ht="16.899999999999999">
       <c r="A13" s="7" t="s">
@@ -3103,116 +3103,116 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" ht="14.45">
       <c r="A25" s="1"/>
@@ -3230,64 +3230,64 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" ht="13.9" customHeight="1">
       <c r="A33" s="2"/>
@@ -3312,154 +3312,154 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3499,96 +3499,96 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="39" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="17.45">
       <c r="A13" s="6" t="s">
@@ -3601,56 +3601,56 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:8" ht="13.9" customHeight="1">
       <c r="A20" s="9"/>
@@ -3675,136 +3675,136 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" spans="1:8" hidden="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" ht="15">
       <c r="A35" s="12" t="s">
@@ -3819,106 +3819,106 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
     </row>
     <row r="44" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" ht="142.5" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" spans="1:8" ht="15">
       <c r="A46" s="3"/>
@@ -4012,178 +4012,178 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="56" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="56" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="56" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="56" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="13.9" customHeight="1">
       <c r="A16" s="40"/>
@@ -4258,6 +4258,7 @@
     <row r="23" spans="1:8" ht="14.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="A15:C15"/>
@@ -4274,7 +4275,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4315,11 +4315,11 @@
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="41.45" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="35" t="s">
         <v>43</v>
       </c>
@@ -4485,15 +4485,15 @@
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:9" ht="14.45">
       <c r="A15" s="16" t="s">
@@ -4502,15 +4502,15 @@
       <c r="B15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:9" ht="14.45">
       <c r="A16" s="21"/>
@@ -4532,11 +4532,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="41.45" customHeight="1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="35" t="s">
         <v>68</v>
       </c>
@@ -4722,15 +4722,15 @@
       <c r="B30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="64" t="s">
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:9" ht="28.9" customHeight="1">
       <c r="A31" s="16" t="s">
@@ -4739,15 +4739,15 @@
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="21"/>
@@ -4781,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
   <dimension ref="A1:K541"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A191" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A508" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -4907,7 +4907,7 @@
       <c r="F8" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="28" t="s">
         <v>94</v>
       </c>
@@ -4928,37 +4928,37 @@
       <c r="A10" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="32">
         <v>2</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -4980,15 +4980,15 @@
       <c r="A14" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -4998,15 +4998,15 @@
       <c r="A15" s="32">
         <v>1</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="96"/>
+      <c r="D15" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -5014,21 +5014,21 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="34"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="26" t="s">
         <v>105</v>
       </c>
@@ -5044,56 +5044,56 @@
       <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="87"/>
+      <c r="F19" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="80" t="s">
+      <c r="G19" s="90"/>
+      <c r="H19" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="41">
         <v>1</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="110"/>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="93" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="110"/>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="70" t="s">
+      <c r="G21" s="95"/>
+      <c r="H21" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I21" s="111"/>
@@ -5203,7 +5203,7 @@
       <c r="F30" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="105"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="28" t="s">
         <v>94</v>
       </c>
@@ -5224,37 +5224,37 @@
       <c r="A32" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="32">
         <v>1</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="32">
         <v>2</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -5276,15 +5276,15 @@
       <c r="A36" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -5294,15 +5294,15 @@
       <c r="A37" s="32">
         <v>1</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -5310,21 +5310,21 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="34"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="92"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="26" t="s">
         <v>116</v>
       </c>
@@ -5340,56 +5340,56 @@
       <c r="C40" s="34"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="83" t="s">
+      <c r="C41" s="84"/>
+      <c r="D41" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="84"/>
-      <c r="F41" s="86" t="s">
+      <c r="E41" s="87"/>
+      <c r="F41" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="87"/>
-      <c r="H41" s="80" t="s">
+      <c r="G41" s="90"/>
+      <c r="H41" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="41">
         <v>1</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="93" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="110"/>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="93" t="s">
         <v>112</v>
       </c>
       <c r="E43" s="110"/>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="70" t="s">
+      <c r="G43" s="95"/>
+      <c r="H43" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I43" s="111"/>
@@ -5499,7 +5499,7 @@
       <c r="F52" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="105"/>
+      <c r="G52" s="108"/>
       <c r="H52" s="28" t="s">
         <v>94</v>
       </c>
@@ -5520,37 +5520,37 @@
       <c r="A54" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="32">
         <v>1</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="32">
         <v>2</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -5572,15 +5572,15 @@
       <c r="A58" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94" t="s">
+      <c r="C58" s="81"/>
+      <c r="D58" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -5590,15 +5590,15 @@
       <c r="A59" s="32">
         <v>1</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90" t="s">
+      <c r="C59" s="96"/>
+      <c r="D59" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -5606,21 +5606,21 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="34"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="92"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="26" t="s">
         <v>116</v>
       </c>
@@ -5636,56 +5636,56 @@
       <c r="C62" s="34"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="83" t="s">
+      <c r="C63" s="84"/>
+      <c r="D63" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="86" t="s">
+      <c r="E63" s="87"/>
+      <c r="F63" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G63" s="87"/>
-      <c r="H63" s="80" t="s">
+      <c r="G63" s="90"/>
+      <c r="H63" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="81"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="41">
         <v>1</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="93" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="110"/>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="93" t="s">
         <v>122</v>
       </c>
       <c r="E65" s="110"/>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="72"/>
-      <c r="H65" s="70" t="s">
+      <c r="G65" s="95"/>
+      <c r="H65" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I65" s="111"/>
@@ -5795,7 +5795,7 @@
       <c r="F74" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="105"/>
+      <c r="G74" s="108"/>
       <c r="H74" s="28" t="s">
         <v>94</v>
       </c>
@@ -5816,37 +5816,37 @@
       <c r="A76" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="32">
         <v>1</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="32">
         <v>2</v>
       </c>
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
@@ -5868,15 +5868,15 @@
       <c r="A80" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="94" t="s">
+      <c r="B80" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94" t="s">
+      <c r="C80" s="81"/>
+      <c r="D80" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
@@ -5886,15 +5886,15 @@
       <c r="A81" s="32">
         <v>1</v>
       </c>
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90" t="s">
+      <c r="C81" s="96"/>
+      <c r="D81" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
@@ -5902,21 +5902,21 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="34"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" ht="15">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="92"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="26" t="s">
         <v>126</v>
       </c>
@@ -5932,56 +5932,56 @@
       <c r="C84" s="34"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A85" s="80" t="s">
+      <c r="A85" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="83" t="s">
+      <c r="C85" s="84"/>
+      <c r="D85" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="84"/>
-      <c r="F85" s="86" t="s">
+      <c r="E85" s="87"/>
+      <c r="F85" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G85" s="87"/>
-      <c r="H85" s="80" t="s">
+      <c r="G85" s="90"/>
+      <c r="H85" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="81"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1">
       <c r="A87" s="41">
         <v>1</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="93" t="s">
         <v>127</v>
       </c>
       <c r="C87" s="110"/>
-      <c r="D87" s="70" t="s">
+      <c r="D87" s="93" t="s">
         <v>122</v>
       </c>
       <c r="E87" s="110"/>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="72"/>
-      <c r="H87" s="70" t="s">
+      <c r="G87" s="95"/>
+      <c r="H87" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I87" s="111"/>
@@ -6091,7 +6091,7 @@
       <c r="F96" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G96" s="105"/>
+      <c r="G96" s="108"/>
       <c r="H96" s="28" t="s">
         <v>94</v>
       </c>
@@ -6112,37 +6112,37 @@
       <c r="A98" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B98" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="93"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="32">
         <v>1</v>
       </c>
-      <c r="B99" s="90" t="s">
+      <c r="B99" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="32">
         <v>2</v>
       </c>
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
@@ -6164,15 +6164,15 @@
       <c r="A102" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94" t="s">
+      <c r="C102" s="81"/>
+      <c r="D102" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E102" s="94"/>
-      <c r="F102" s="94"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
@@ -6182,15 +6182,15 @@
       <c r="A103" s="32">
         <v>1</v>
       </c>
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90" t="s">
+      <c r="C103" s="96"/>
+      <c r="D103" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
@@ -6198,21 +6198,21 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="34"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97"/>
+      <c r="F104" s="97"/>
       <c r="G104" s="26"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
     </row>
     <row r="105" spans="1:10" ht="15">
-      <c r="A105" s="92" t="s">
+      <c r="A105" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="92"/>
+      <c r="B105" s="82"/>
       <c r="C105" s="26" t="s">
         <v>131</v>
       </c>
@@ -6228,84 +6228,84 @@
       <c r="C106" s="34"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A107" s="80" t="s">
+      <c r="A107" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="80" t="s">
+      <c r="B107" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="81"/>
-      <c r="D107" s="83" t="s">
+      <c r="C107" s="84"/>
+      <c r="D107" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="86" t="s">
+      <c r="E107" s="87"/>
+      <c r="F107" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G107" s="87"/>
-      <c r="H107" s="80" t="s">
+      <c r="G107" s="90"/>
+      <c r="H107" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I107" s="80"/>
-      <c r="J107" s="80"/>
+      <c r="I107" s="83"/>
+      <c r="J107" s="83"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="81"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="80"/>
-      <c r="J108" s="80"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="83"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1">
       <c r="A109" s="41">
         <v>1</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="93" t="s">
         <v>132</v>
       </c>
       <c r="C109" s="110"/>
-      <c r="D109" s="70" t="s">
+      <c r="D109" s="93" t="s">
         <v>133</v>
       </c>
       <c r="E109" s="110"/>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G109" s="72"/>
-      <c r="H109" s="70" t="s">
+      <c r="G109" s="95"/>
+      <c r="H109" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I109" s="111"/>
       <c r="J109" s="110"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A110" s="107"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="109"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="109"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A111" s="107"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1">
       <c r="A112" s="25" t="s">
@@ -6411,7 +6411,7 @@
       <c r="F118" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="G118" s="105"/>
+      <c r="G118" s="108"/>
       <c r="H118" s="28" t="s">
         <v>94</v>
       </c>
@@ -6432,37 +6432,37 @@
       <c r="A120" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="93" t="s">
+      <c r="B120" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C120" s="93"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1">
       <c r="A121" s="32">
         <v>1</v>
       </c>
-      <c r="B121" s="90" t="s">
+      <c r="B121" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="90"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="96"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1">
       <c r="A122" s="32">
         <v>2</v>
       </c>
-      <c r="B122" s="90" t="s">
+      <c r="B122" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="90"/>
-      <c r="D122" s="90"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1">
       <c r="A123" s="27"/>
@@ -6480,15 +6480,15 @@
       <c r="A124" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="94" t="s">
+      <c r="B124" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="94"/>
-      <c r="D124" s="94" t="s">
+      <c r="C124" s="81"/>
+      <c r="D124" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E124" s="94"/>
-      <c r="F124" s="94"/>
+      <c r="E124" s="81"/>
+      <c r="F124" s="81"/>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
@@ -6498,15 +6498,15 @@
       <c r="A125" s="32">
         <v>1</v>
       </c>
-      <c r="B125" s="90" t="s">
+      <c r="B125" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="90"/>
-      <c r="D125" s="90" t="s">
+      <c r="C125" s="96"/>
+      <c r="D125" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="90"/>
-      <c r="F125" s="90"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="96"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
@@ -6514,11 +6514,11 @@
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="90"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
-      <c r="F126" s="104"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="109"/>
+      <c r="F126" s="109"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
@@ -6526,11 +6526,11 @@
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1">
       <c r="A127" s="32"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="90"/>
-      <c r="D127" s="90"/>
-      <c r="E127" s="90"/>
-      <c r="F127" s="90"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="96"/>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
@@ -6538,21 +6538,21 @@
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1">
       <c r="A128" s="34"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="91"/>
-      <c r="E128" s="91"/>
-      <c r="F128" s="91"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="97"/>
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
       <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A129" s="92" t="s">
+      <c r="A129" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="92"/>
+      <c r="B129" s="82"/>
       <c r="C129" s="26" t="s">
         <v>116</v>
       </c>
@@ -6568,22 +6568,22 @@
       <c r="C130" s="34"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A131" s="96" t="s">
+      <c r="A131" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="97" t="s">
+      <c r="B131" s="101" t="s">
         <v>107</v>
       </c>
       <c r="C131" s="112"/>
-      <c r="D131" s="98" t="s">
+      <c r="D131" s="102" t="s">
         <v>108</v>
       </c>
       <c r="E131" s="112"/>
-      <c r="F131" s="99" t="s">
+      <c r="F131" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="G131" s="100"/>
-      <c r="H131" s="97" t="s">
+      <c r="G131" s="104"/>
+      <c r="H131" s="101" t="s">
         <v>110</v>
       </c>
       <c r="I131" s="113"/>
@@ -6595,8 +6595,8 @@
       <c r="C132" s="116"/>
       <c r="D132" s="115"/>
       <c r="E132" s="116"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="102"/>
+      <c r="F132" s="105"/>
+      <c r="G132" s="106"/>
       <c r="H132" s="115"/>
       <c r="I132" s="117"/>
       <c r="J132" s="116"/>
@@ -6605,19 +6605,19 @@
       <c r="A133" s="41">
         <v>1</v>
       </c>
-      <c r="B133" s="70" t="s">
+      <c r="B133" s="93" t="s">
         <v>139</v>
       </c>
       <c r="C133" s="110"/>
-      <c r="D133" s="70" t="s">
+      <c r="D133" s="93" t="s">
         <v>140</v>
       </c>
       <c r="E133" s="110"/>
-      <c r="F133" s="70" t="s">
+      <c r="F133" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="G133" s="95"/>
-      <c r="H133" s="70" t="s">
+      <c r="G133" s="99"/>
+      <c r="H133" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I133" s="111"/>
@@ -6752,37 +6752,37 @@
       <c r="A144" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B144" s="93" t="s">
+      <c r="B144" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C144" s="93"/>
-      <c r="D144" s="93"/>
-      <c r="E144" s="93"/>
-      <c r="F144" s="93"/>
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1">
       <c r="A145" s="32">
         <v>1</v>
       </c>
-      <c r="B145" s="90" t="s">
+      <c r="B145" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C145" s="90"/>
-      <c r="D145" s="90"/>
-      <c r="E145" s="90"/>
-      <c r="F145" s="90"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1">
       <c r="A146" s="32">
         <v>2</v>
       </c>
-      <c r="B146" s="90" t="s">
+      <c r="B146" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="90"/>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-      <c r="F146" s="90"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="96"/>
+      <c r="E146" s="96"/>
+      <c r="F146" s="96"/>
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
@@ -6804,15 +6804,15 @@
       <c r="A148" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B148" s="94" t="s">
+      <c r="B148" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C148" s="94"/>
-      <c r="D148" s="94" t="s">
+      <c r="C148" s="81"/>
+      <c r="D148" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E148" s="94"/>
-      <c r="F148" s="94"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
@@ -6822,15 +6822,15 @@
       <c r="A149" s="32">
         <v>1</v>
       </c>
-      <c r="B149" s="90" t="s">
+      <c r="B149" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90" t="s">
+      <c r="C149" s="96"/>
+      <c r="D149" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="E149" s="90"/>
-      <c r="F149" s="90"/>
+      <c r="E149" s="96"/>
+      <c r="F149" s="96"/>
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
@@ -6838,21 +6838,21 @@
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1">
       <c r="A150" s="34"/>
-      <c r="B150" s="91"/>
-      <c r="C150" s="91"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="91"/>
-      <c r="F150" s="91"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="97"/>
+      <c r="E150" s="97"/>
+      <c r="F150" s="97"/>
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
       <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A151" s="92" t="s">
+      <c r="A151" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="92"/>
+      <c r="B151" s="82"/>
       <c r="C151" s="26" t="s">
         <v>116</v>
       </c>
@@ -6868,56 +6868,56 @@
       <c r="C152" s="34"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A153" s="80" t="s">
+      <c r="A153" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C153" s="81"/>
-      <c r="D153" s="83" t="s">
+      <c r="C153" s="84"/>
+      <c r="D153" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E153" s="84"/>
-      <c r="F153" s="86" t="s">
+      <c r="E153" s="87"/>
+      <c r="F153" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G153" s="87"/>
-      <c r="H153" s="80" t="s">
+      <c r="G153" s="90"/>
+      <c r="H153" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I153" s="80"/>
-      <c r="J153" s="80"/>
+      <c r="I153" s="83"/>
+      <c r="J153" s="83"/>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A154" s="81"/>
-      <c r="B154" s="82"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="88"/>
-      <c r="G154" s="89"/>
-      <c r="H154" s="80"/>
-      <c r="I154" s="80"/>
-      <c r="J154" s="80"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="92"/>
+      <c r="H154" s="83"/>
+      <c r="I154" s="83"/>
+      <c r="J154" s="83"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1">
       <c r="A155" s="41">
         <v>1</v>
       </c>
-      <c r="B155" s="70" t="s">
+      <c r="B155" s="93" t="s">
         <v>144</v>
       </c>
       <c r="C155" s="110"/>
-      <c r="D155" s="70" t="s">
+      <c r="D155" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="E155" s="95"/>
-      <c r="F155" s="70" t="s">
+      <c r="E155" s="99"/>
+      <c r="F155" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="G155" s="95"/>
-      <c r="H155" s="70" t="s">
+      <c r="G155" s="99"/>
+      <c r="H155" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I155" s="111"/>
@@ -6925,13 +6925,13 @@
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1">
       <c r="A156" s="41"/>
-      <c r="B156" s="70"/>
+      <c r="B156" s="93"/>
       <c r="C156" s="110"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="95"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="70"/>
+      <c r="D156" s="93"/>
+      <c r="E156" s="99"/>
+      <c r="F156" s="93"/>
+      <c r="G156" s="99"/>
+      <c r="H156" s="93"/>
       <c r="I156" s="111"/>
       <c r="J156" s="110"/>
     </row>
@@ -7062,37 +7062,37 @@
       <c r="A167" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B167" s="93" t="s">
+      <c r="B167" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C167" s="93"/>
-      <c r="D167" s="93"/>
-      <c r="E167" s="93"/>
-      <c r="F167" s="93"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="80"/>
+      <c r="E167" s="80"/>
+      <c r="F167" s="80"/>
     </row>
     <row r="168" spans="1:10" ht="14.25" customHeight="1">
       <c r="A168" s="32">
         <v>1</v>
       </c>
-      <c r="B168" s="90" t="s">
+      <c r="B168" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="90"/>
-      <c r="D168" s="90"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="90"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="96"/>
+      <c r="F168" s="96"/>
     </row>
     <row r="169" spans="1:10" ht="14.25" customHeight="1">
       <c r="A169" s="32">
         <v>2</v>
       </c>
-      <c r="B169" s="90" t="s">
+      <c r="B169" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C169" s="90"/>
-      <c r="D169" s="90"/>
-      <c r="E169" s="90"/>
-      <c r="F169" s="90"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="96"/>
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
@@ -7114,15 +7114,15 @@
       <c r="A171" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B171" s="94" t="s">
+      <c r="B171" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C171" s="94"/>
-      <c r="D171" s="94" t="s">
+      <c r="C171" s="81"/>
+      <c r="D171" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E171" s="94"/>
-      <c r="F171" s="94"/>
+      <c r="E171" s="81"/>
+      <c r="F171" s="81"/>
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
@@ -7132,15 +7132,15 @@
       <c r="A172" s="32">
         <v>1</v>
       </c>
-      <c r="B172" s="90" t="s">
+      <c r="B172" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C172" s="90"/>
-      <c r="D172" s="90" t="s">
+      <c r="C172" s="96"/>
+      <c r="D172" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="E172" s="90"/>
-      <c r="F172" s="90"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="96"/>
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
@@ -7148,21 +7148,21 @@
     </row>
     <row r="173" spans="1:10" ht="14.25" customHeight="1">
       <c r="A173" s="34"/>
-      <c r="B173" s="91"/>
-      <c r="C173" s="91"/>
-      <c r="D173" s="91"/>
-      <c r="E173" s="91"/>
-      <c r="F173" s="91"/>
+      <c r="B173" s="97"/>
+      <c r="C173" s="97"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
       <c r="G173" s="26"/>
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
       <c r="J173" s="26"/>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A174" s="92" t="s">
+      <c r="A174" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B174" s="92"/>
+      <c r="B174" s="82"/>
       <c r="C174" s="26" t="s">
         <v>116</v>
       </c>
@@ -7178,70 +7178,70 @@
       <c r="C175" s="34"/>
     </row>
     <row r="176" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A176" s="80" t="s">
+      <c r="A176" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B176" s="80" t="s">
+      <c r="B176" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C176" s="81"/>
-      <c r="D176" s="83" t="s">
+      <c r="C176" s="84"/>
+      <c r="D176" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E176" s="84"/>
-      <c r="F176" s="86" t="s">
+      <c r="E176" s="87"/>
+      <c r="F176" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G176" s="87"/>
-      <c r="H176" s="80" t="s">
+      <c r="G176" s="90"/>
+      <c r="H176" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I176" s="80"/>
-      <c r="J176" s="80"/>
+      <c r="I176" s="83"/>
+      <c r="J176" s="83"/>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A177" s="81"/>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="89"/>
-      <c r="H177" s="80"/>
-      <c r="I177" s="80"/>
-      <c r="J177" s="80"/>
+      <c r="A177" s="84"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="92"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
     </row>
     <row r="178" spans="1:10" ht="14.25" customHeight="1">
       <c r="A178" s="41">
         <v>1</v>
       </c>
-      <c r="B178" s="70" t="s">
+      <c r="B178" s="93" t="s">
         <v>144</v>
       </c>
       <c r="C178" s="110"/>
-      <c r="D178" s="70" t="s">
+      <c r="D178" s="93" t="s">
         <v>140</v>
       </c>
       <c r="E178" s="110"/>
-      <c r="F178" s="71" t="s">
+      <c r="F178" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G178" s="72"/>
-      <c r="H178" s="71" t="s">
+      <c r="G178" s="95"/>
+      <c r="H178" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I178" s="103"/>
-      <c r="J178" s="72"/>
+      <c r="I178" s="98"/>
+      <c r="J178" s="95"/>
     </row>
     <row r="179" spans="1:10" ht="14.25" customHeight="1">
       <c r="A179" s="41"/>
-      <c r="B179" s="70"/>
+      <c r="B179" s="93"/>
       <c r="C179" s="110"/>
-      <c r="D179" s="70"/>
+      <c r="D179" s="93"/>
       <c r="E179" s="110"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="95"/>
-      <c r="H179" s="70"/>
+      <c r="F179" s="93"/>
+      <c r="G179" s="99"/>
+      <c r="H179" s="93"/>
       <c r="I179" s="111"/>
       <c r="J179" s="110"/>
     </row>
@@ -7372,37 +7372,37 @@
       <c r="A190" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B190" s="93" t="s">
+      <c r="B190" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C190" s="93"/>
-      <c r="D190" s="93"/>
-      <c r="E190" s="93"/>
-      <c r="F190" s="93"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="80"/>
+      <c r="E190" s="80"/>
+      <c r="F190" s="80"/>
     </row>
     <row r="191" spans="1:10" ht="14.25" customHeight="1">
       <c r="A191" s="32">
         <v>1</v>
       </c>
-      <c r="B191" s="90" t="s">
+      <c r="B191" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C191" s="90"/>
-      <c r="D191" s="90"/>
-      <c r="E191" s="90"/>
-      <c r="F191" s="90"/>
+      <c r="C191" s="96"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="96"/>
     </row>
     <row r="192" spans="1:10" ht="14.25" customHeight="1">
       <c r="A192" s="32">
         <v>2</v>
       </c>
-      <c r="B192" s="90" t="s">
+      <c r="B192" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C192" s="90"/>
-      <c r="D192" s="90"/>
-      <c r="E192" s="90"/>
-      <c r="F192" s="90"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="96"/>
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
@@ -7424,15 +7424,15 @@
       <c r="A194" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B194" s="94" t="s">
+      <c r="B194" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C194" s="94"/>
-      <c r="D194" s="94" t="s">
+      <c r="C194" s="81"/>
+      <c r="D194" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E194" s="94"/>
-      <c r="F194" s="94"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="81"/>
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
@@ -7442,15 +7442,15 @@
       <c r="A195" s="32">
         <v>1</v>
       </c>
-      <c r="B195" s="90" t="s">
+      <c r="B195" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C195" s="90"/>
-      <c r="D195" s="90" t="s">
+      <c r="C195" s="96"/>
+      <c r="D195" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E195" s="90"/>
-      <c r="F195" s="90"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="96"/>
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
@@ -7458,21 +7458,21 @@
     </row>
     <row r="196" spans="1:10" ht="14.25" customHeight="1">
       <c r="A196" s="34"/>
-      <c r="B196" s="91"/>
-      <c r="C196" s="91"/>
-      <c r="D196" s="91"/>
-      <c r="E196" s="91"/>
-      <c r="F196" s="91"/>
+      <c r="B196" s="97"/>
+      <c r="C196" s="97"/>
+      <c r="D196" s="97"/>
+      <c r="E196" s="97"/>
+      <c r="F196" s="97"/>
       <c r="G196" s="26"/>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
       <c r="J196" s="26"/>
     </row>
     <row r="197" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A197" s="92" t="s">
+      <c r="A197" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B197" s="92"/>
+      <c r="B197" s="82"/>
       <c r="C197" s="26" t="s">
         <v>116</v>
       </c>
@@ -7488,56 +7488,56 @@
       <c r="C198" s="34"/>
     </row>
     <row r="199" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A199" s="80" t="s">
+      <c r="A199" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B199" s="80" t="s">
+      <c r="B199" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C199" s="81"/>
-      <c r="D199" s="83" t="s">
+      <c r="C199" s="84"/>
+      <c r="D199" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E199" s="84"/>
-      <c r="F199" s="86" t="s">
+      <c r="E199" s="87"/>
+      <c r="F199" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G199" s="87"/>
-      <c r="H199" s="80" t="s">
+      <c r="G199" s="90"/>
+      <c r="H199" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I199" s="80"/>
-      <c r="J199" s="80"/>
+      <c r="I199" s="83"/>
+      <c r="J199" s="83"/>
     </row>
     <row r="200" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A200" s="81"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="85"/>
-      <c r="E200" s="85"/>
-      <c r="F200" s="88"/>
-      <c r="G200" s="89"/>
-      <c r="H200" s="80"/>
-      <c r="I200" s="80"/>
-      <c r="J200" s="80"/>
+      <c r="A200" s="84"/>
+      <c r="B200" s="85"/>
+      <c r="C200" s="85"/>
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
+      <c r="F200" s="91"/>
+      <c r="G200" s="92"/>
+      <c r="H200" s="83"/>
+      <c r="I200" s="83"/>
+      <c r="J200" s="83"/>
     </row>
     <row r="201" spans="1:10" ht="14.25" customHeight="1">
       <c r="A201" s="41">
         <v>1</v>
       </c>
-      <c r="B201" s="70" t="s">
+      <c r="B201" s="93" t="s">
         <v>150</v>
       </c>
       <c r="C201" s="110"/>
-      <c r="D201" s="70" t="s">
+      <c r="D201" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="E201" s="95"/>
-      <c r="F201" s="71" t="s">
+      <c r="E201" s="99"/>
+      <c r="F201" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G201" s="72"/>
-      <c r="H201" s="70" t="s">
+      <c r="G201" s="95"/>
+      <c r="H201" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I201" s="111"/>
@@ -7545,13 +7545,13 @@
     </row>
     <row r="202" spans="1:10" ht="14.25" customHeight="1">
       <c r="A202" s="41"/>
-      <c r="B202" s="70"/>
+      <c r="B202" s="93"/>
       <c r="C202" s="110"/>
-      <c r="D202" s="70"/>
-      <c r="E202" s="95"/>
-      <c r="F202" s="70"/>
-      <c r="G202" s="95"/>
-      <c r="H202" s="70"/>
+      <c r="D202" s="93"/>
+      <c r="E202" s="99"/>
+      <c r="F202" s="93"/>
+      <c r="G202" s="99"/>
+      <c r="H202" s="93"/>
       <c r="I202" s="111"/>
       <c r="J202" s="110"/>
     </row>
@@ -7683,37 +7683,37 @@
       <c r="A214" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B214" s="93" t="s">
+      <c r="B214" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C214" s="93"/>
-      <c r="D214" s="93"/>
-      <c r="E214" s="93"/>
-      <c r="F214" s="93"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
     </row>
     <row r="215" spans="1:10" ht="14.25" customHeight="1">
       <c r="A215" s="32">
         <v>1</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B215" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C215" s="90"/>
-      <c r="D215" s="90"/>
-      <c r="E215" s="90"/>
-      <c r="F215" s="90"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
     </row>
     <row r="216" spans="1:10" ht="14.25" customHeight="1">
       <c r="A216" s="32">
         <v>2</v>
       </c>
-      <c r="B216" s="90" t="s">
+      <c r="B216" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C216" s="90"/>
-      <c r="D216" s="90"/>
-      <c r="E216" s="90"/>
-      <c r="F216" s="90"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
       <c r="G216" s="27"/>
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
@@ -7735,15 +7735,15 @@
       <c r="A218" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B218" s="94" t="s">
+      <c r="B218" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C218" s="94"/>
-      <c r="D218" s="94" t="s">
+      <c r="C218" s="81"/>
+      <c r="D218" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E218" s="94"/>
-      <c r="F218" s="94"/>
+      <c r="E218" s="81"/>
+      <c r="F218" s="81"/>
       <c r="G218" s="27"/>
       <c r="H218" s="27"/>
       <c r="I218" s="27"/>
@@ -7753,15 +7753,15 @@
       <c r="A219" s="32">
         <v>1</v>
       </c>
-      <c r="B219" s="90" t="s">
+      <c r="B219" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C219" s="90"/>
-      <c r="D219" s="90" t="s">
+      <c r="C219" s="96"/>
+      <c r="D219" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="E219" s="90"/>
-      <c r="F219" s="90"/>
+      <c r="E219" s="96"/>
+      <c r="F219" s="96"/>
       <c r="G219" s="27"/>
       <c r="H219" s="27"/>
       <c r="I219" s="27"/>
@@ -7769,21 +7769,21 @@
     </row>
     <row r="220" spans="1:10" ht="14.25" customHeight="1">
       <c r="A220" s="34"/>
-      <c r="B220" s="91"/>
-      <c r="C220" s="91"/>
-      <c r="D220" s="91"/>
-      <c r="E220" s="91"/>
-      <c r="F220" s="91"/>
+      <c r="B220" s="97"/>
+      <c r="C220" s="97"/>
+      <c r="D220" s="97"/>
+      <c r="E220" s="97"/>
+      <c r="F220" s="97"/>
       <c r="G220" s="26"/>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
       <c r="J220" s="26"/>
     </row>
     <row r="221" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A221" s="92" t="s">
+      <c r="A221" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B221" s="92"/>
+      <c r="B221" s="82"/>
       <c r="C221" s="26" t="s">
         <v>116</v>
       </c>
@@ -7799,84 +7799,84 @@
       <c r="C222" s="34"/>
     </row>
     <row r="223" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A223" s="80" t="s">
+      <c r="A223" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="83" t="s">
+      <c r="C223" s="84"/>
+      <c r="D223" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E223" s="84"/>
-      <c r="F223" s="86" t="s">
+      <c r="E223" s="87"/>
+      <c r="F223" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G223" s="87"/>
-      <c r="H223" s="80" t="s">
+      <c r="G223" s="90"/>
+      <c r="H223" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I223" s="80"/>
-      <c r="J223" s="80"/>
+      <c r="I223" s="83"/>
+      <c r="J223" s="83"/>
     </row>
     <row r="224" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A224" s="81"/>
-      <c r="B224" s="82"/>
-      <c r="C224" s="82"/>
-      <c r="D224" s="85"/>
-      <c r="E224" s="85"/>
-      <c r="F224" s="88"/>
-      <c r="G224" s="89"/>
-      <c r="H224" s="80"/>
-      <c r="I224" s="80"/>
-      <c r="J224" s="80"/>
+      <c r="A224" s="84"/>
+      <c r="B224" s="85"/>
+      <c r="C224" s="85"/>
+      <c r="D224" s="88"/>
+      <c r="E224" s="88"/>
+      <c r="F224" s="91"/>
+      <c r="G224" s="92"/>
+      <c r="H224" s="83"/>
+      <c r="I224" s="83"/>
+      <c r="J224" s="83"/>
     </row>
     <row r="225" spans="1:10" ht="14.25" customHeight="1">
       <c r="A225" s="41">
         <v>1</v>
       </c>
-      <c r="B225" s="70" t="s">
+      <c r="B225" s="93" t="s">
         <v>150</v>
       </c>
       <c r="C225" s="110"/>
-      <c r="D225" s="70" t="s">
+      <c r="D225" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="E225" s="95"/>
-      <c r="F225" s="71" t="s">
+      <c r="E225" s="99"/>
+      <c r="F225" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G225" s="72"/>
-      <c r="H225" s="71" t="s">
+      <c r="G225" s="95"/>
+      <c r="H225" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I225" s="103"/>
-      <c r="J225" s="72"/>
+      <c r="I225" s="98"/>
+      <c r="J225" s="95"/>
     </row>
     <row r="226" spans="1:10" ht="14.25" customHeight="1">
       <c r="A226" s="41"/>
-      <c r="B226" s="70"/>
+      <c r="B226" s="93"/>
       <c r="C226" s="110"/>
-      <c r="D226" s="70"/>
-      <c r="E226" s="95"/>
-      <c r="F226" s="70"/>
-      <c r="G226" s="95"/>
-      <c r="H226" s="70"/>
-      <c r="I226" s="106"/>
-      <c r="J226" s="95"/>
+      <c r="D226" s="93"/>
+      <c r="E226" s="99"/>
+      <c r="F226" s="93"/>
+      <c r="G226" s="99"/>
+      <c r="H226" s="93"/>
+      <c r="I226" s="107"/>
+      <c r="J226" s="99"/>
     </row>
     <row r="227" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A227" s="107"/>
-      <c r="B227" s="108"/>
-      <c r="C227" s="109"/>
-      <c r="D227" s="108"/>
-      <c r="E227" s="109"/>
-      <c r="F227" s="108"/>
-      <c r="G227" s="108"/>
-      <c r="H227" s="108"/>
-      <c r="I227" s="109"/>
-      <c r="J227" s="109"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="45"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="44"/>
+      <c r="H227" s="44"/>
+      <c r="I227" s="45"/>
+      <c r="J227" s="45"/>
     </row>
     <row r="229" spans="1:10" ht="15" customHeight="1">
       <c r="A229" s="25" t="s">
@@ -8003,37 +8003,37 @@
       <c r="A237" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B237" s="93" t="s">
+      <c r="B237" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C237" s="93"/>
-      <c r="D237" s="93"/>
-      <c r="E237" s="93"/>
-      <c r="F237" s="93"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="80"/>
+      <c r="E237" s="80"/>
+      <c r="F237" s="80"/>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="32">
         <v>1</v>
       </c>
-      <c r="B238" s="90" t="s">
+      <c r="B238" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C238" s="90"/>
-      <c r="D238" s="90"/>
-      <c r="E238" s="90"/>
-      <c r="F238" s="90"/>
+      <c r="C238" s="96"/>
+      <c r="D238" s="96"/>
+      <c r="E238" s="96"/>
+      <c r="F238" s="96"/>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="32">
         <v>2</v>
       </c>
-      <c r="B239" s="90" t="s">
+      <c r="B239" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C239" s="90"/>
-      <c r="D239" s="90"/>
-      <c r="E239" s="90"/>
-      <c r="F239" s="90"/>
+      <c r="C239" s="96"/>
+      <c r="D239" s="96"/>
+      <c r="E239" s="96"/>
+      <c r="F239" s="96"/>
       <c r="G239" s="27"/>
       <c r="H239" s="27"/>
       <c r="I239" s="27"/>
@@ -8055,15 +8055,15 @@
       <c r="A241" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B241" s="94" t="s">
+      <c r="B241" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C241" s="94"/>
-      <c r="D241" s="94" t="s">
+      <c r="C241" s="81"/>
+      <c r="D241" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E241" s="94"/>
-      <c r="F241" s="94"/>
+      <c r="E241" s="81"/>
+      <c r="F241" s="81"/>
       <c r="G241" s="27"/>
       <c r="H241" s="27"/>
       <c r="I241" s="27"/>
@@ -8073,15 +8073,15 @@
       <c r="A242" s="32">
         <v>1</v>
       </c>
-      <c r="B242" s="90" t="s">
+      <c r="B242" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C242" s="90"/>
-      <c r="D242" s="90" t="s">
+      <c r="C242" s="96"/>
+      <c r="D242" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="E242" s="90"/>
-      <c r="F242" s="90"/>
+      <c r="E242" s="96"/>
+      <c r="F242" s="96"/>
       <c r="G242" s="27"/>
       <c r="H242" s="27"/>
       <c r="I242" s="27"/>
@@ -8089,21 +8089,21 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="34"/>
-      <c r="B243" s="91"/>
-      <c r="C243" s="91"/>
-      <c r="D243" s="91"/>
-      <c r="E243" s="91"/>
-      <c r="F243" s="91"/>
+      <c r="B243" s="97"/>
+      <c r="C243" s="97"/>
+      <c r="D243" s="97"/>
+      <c r="E243" s="97"/>
+      <c r="F243" s="97"/>
       <c r="G243" s="26"/>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
       <c r="J243" s="26"/>
     </row>
     <row r="244" spans="1:10" ht="15">
-      <c r="A244" s="92" t="s">
+      <c r="A244" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B244" s="92"/>
+      <c r="B244" s="82"/>
       <c r="C244" s="26" t="s">
         <v>159</v>
       </c>
@@ -8119,56 +8119,56 @@
       <c r="C245" s="34"/>
     </row>
     <row r="246" spans="1:10">
-      <c r="A246" s="80" t="s">
+      <c r="A246" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B246" s="80" t="s">
+      <c r="B246" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C246" s="81"/>
-      <c r="D246" s="83" t="s">
+      <c r="C246" s="84"/>
+      <c r="D246" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E246" s="84"/>
-      <c r="F246" s="86" t="s">
+      <c r="E246" s="87"/>
+      <c r="F246" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G246" s="87"/>
-      <c r="H246" s="80" t="s">
+      <c r="G246" s="90"/>
+      <c r="H246" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I246" s="80"/>
-      <c r="J246" s="80"/>
+      <c r="I246" s="83"/>
+      <c r="J246" s="83"/>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="81"/>
-      <c r="B247" s="82"/>
-      <c r="C247" s="82"/>
-      <c r="D247" s="85"/>
-      <c r="E247" s="85"/>
-      <c r="F247" s="88"/>
-      <c r="G247" s="89"/>
-      <c r="H247" s="80"/>
-      <c r="I247" s="80"/>
-      <c r="J247" s="80"/>
+      <c r="A247" s="84"/>
+      <c r="B247" s="85"/>
+      <c r="C247" s="85"/>
+      <c r="D247" s="88"/>
+      <c r="E247" s="88"/>
+      <c r="F247" s="91"/>
+      <c r="G247" s="92"/>
+      <c r="H247" s="83"/>
+      <c r="I247" s="83"/>
+      <c r="J247" s="83"/>
     </row>
     <row r="248" spans="1:10" ht="14.25" customHeight="1">
       <c r="A248" s="41">
         <v>1</v>
       </c>
-      <c r="B248" s="70" t="s">
+      <c r="B248" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C248" s="110"/>
-      <c r="D248" s="70" t="s">
+      <c r="D248" s="93" t="s">
         <v>161</v>
       </c>
       <c r="E248" s="110"/>
-      <c r="F248" s="71" t="s">
+      <c r="F248" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G248" s="72"/>
-      <c r="H248" s="70" t="s">
+      <c r="G248" s="95"/>
+      <c r="H248" s="93" t="s">
         <v>163</v>
       </c>
       <c r="I248" s="111"/>
@@ -8176,13 +8176,13 @@
     </row>
     <row r="249" spans="1:10" ht="14.25" customHeight="1">
       <c r="A249" s="41"/>
-      <c r="B249" s="70"/>
+      <c r="B249" s="93"/>
       <c r="C249" s="110"/>
-      <c r="D249" s="70"/>
+      <c r="D249" s="93"/>
       <c r="E249" s="110"/>
-      <c r="F249" s="70"/>
-      <c r="G249" s="95"/>
-      <c r="H249" s="70"/>
+      <c r="F249" s="93"/>
+      <c r="G249" s="99"/>
+      <c r="H249" s="93"/>
       <c r="I249" s="111"/>
       <c r="J249" s="110"/>
     </row>
@@ -8294,7 +8294,7 @@
       <c r="H258" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I258" s="70" t="s">
+      <c r="I258" s="93" t="s">
         <v>163</v>
       </c>
       <c r="J258" s="111"/>
@@ -8313,37 +8313,37 @@
       <c r="A260" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B260" s="93" t="s">
+      <c r="B260" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C260" s="93"/>
-      <c r="D260" s="93"/>
-      <c r="E260" s="93"/>
-      <c r="F260" s="93"/>
+      <c r="C260" s="80"/>
+      <c r="D260" s="80"/>
+      <c r="E260" s="80"/>
+      <c r="F260" s="80"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="32">
         <v>1</v>
       </c>
-      <c r="B261" s="90" t="s">
+      <c r="B261" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C261" s="90"/>
-      <c r="D261" s="90"/>
-      <c r="E261" s="90"/>
-      <c r="F261" s="90"/>
+      <c r="C261" s="96"/>
+      <c r="D261" s="96"/>
+      <c r="E261" s="96"/>
+      <c r="F261" s="96"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="32">
         <v>2</v>
       </c>
-      <c r="B262" s="90" t="s">
+      <c r="B262" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C262" s="90"/>
-      <c r="D262" s="90"/>
-      <c r="E262" s="90"/>
-      <c r="F262" s="90"/>
+      <c r="C262" s="96"/>
+      <c r="D262" s="96"/>
+      <c r="E262" s="96"/>
+      <c r="F262" s="96"/>
       <c r="G262" s="27"/>
       <c r="H262" s="27"/>
       <c r="I262" s="27"/>
@@ -8365,15 +8365,15 @@
       <c r="A264" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B264" s="94" t="s">
+      <c r="B264" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C264" s="94"/>
-      <c r="D264" s="94" t="s">
+      <c r="C264" s="81"/>
+      <c r="D264" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E264" s="94"/>
-      <c r="F264" s="94"/>
+      <c r="E264" s="81"/>
+      <c r="F264" s="81"/>
       <c r="G264" s="27"/>
       <c r="H264" s="27"/>
       <c r="I264" s="27"/>
@@ -8383,15 +8383,15 @@
       <c r="A265" s="32">
         <v>1</v>
       </c>
-      <c r="B265" s="90" t="s">
+      <c r="B265" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C265" s="90"/>
-      <c r="D265" s="90" t="s">
+      <c r="C265" s="96"/>
+      <c r="D265" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="E265" s="90"/>
-      <c r="F265" s="90"/>
+      <c r="E265" s="96"/>
+      <c r="F265" s="96"/>
       <c r="G265" s="27"/>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
@@ -8399,21 +8399,21 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="34"/>
-      <c r="B266" s="91"/>
-      <c r="C266" s="91"/>
-      <c r="D266" s="91"/>
-      <c r="E266" s="91"/>
-      <c r="F266" s="91"/>
+      <c r="B266" s="97"/>
+      <c r="C266" s="97"/>
+      <c r="D266" s="97"/>
+      <c r="E266" s="97"/>
+      <c r="F266" s="97"/>
       <c r="G266" s="26"/>
       <c r="H266" s="26"/>
       <c r="I266" s="26"/>
       <c r="J266" s="26"/>
     </row>
     <row r="267" spans="1:11" ht="15">
-      <c r="A267" s="92" t="s">
+      <c r="A267" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B267" s="92"/>
+      <c r="B267" s="82"/>
       <c r="C267" s="26" t="s">
         <v>159</v>
       </c>
@@ -8429,56 +8429,56 @@
       <c r="C268" s="34"/>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="80" t="s">
+      <c r="A269" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B269" s="80" t="s">
+      <c r="B269" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C269" s="81"/>
-      <c r="D269" s="83" t="s">
+      <c r="C269" s="84"/>
+      <c r="D269" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E269" s="84"/>
-      <c r="F269" s="86" t="s">
+      <c r="E269" s="87"/>
+      <c r="F269" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G269" s="87"/>
-      <c r="H269" s="80" t="s">
+      <c r="G269" s="90"/>
+      <c r="H269" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I269" s="80"/>
-      <c r="J269" s="80"/>
+      <c r="I269" s="83"/>
+      <c r="J269" s="83"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="81"/>
-      <c r="B270" s="82"/>
-      <c r="C270" s="82"/>
-      <c r="D270" s="85"/>
-      <c r="E270" s="85"/>
-      <c r="F270" s="88"/>
-      <c r="G270" s="89"/>
-      <c r="H270" s="80"/>
-      <c r="I270" s="80"/>
-      <c r="J270" s="80"/>
+      <c r="A270" s="84"/>
+      <c r="B270" s="85"/>
+      <c r="C270" s="85"/>
+      <c r="D270" s="88"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="91"/>
+      <c r="G270" s="92"/>
+      <c r="H270" s="83"/>
+      <c r="I270" s="83"/>
+      <c r="J270" s="83"/>
     </row>
     <row r="271" spans="1:11" ht="13.9" customHeight="1">
       <c r="A271" s="41">
         <v>1</v>
       </c>
-      <c r="B271" s="70" t="s">
+      <c r="B271" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C271" s="110"/>
-      <c r="D271" s="70" t="s">
+      <c r="D271" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E271" s="95"/>
-      <c r="F271" s="71" t="s">
+      <c r="E271" s="99"/>
+      <c r="F271" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G271" s="72"/>
-      <c r="H271" s="70" t="s">
+      <c r="G271" s="95"/>
+      <c r="H271" s="93" t="s">
         <v>163</v>
       </c>
       <c r="I271" s="111"/>
@@ -8593,7 +8593,7 @@
       <c r="H281" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I281" s="70" t="s">
+      <c r="I281" s="93" t="s">
         <v>163</v>
       </c>
       <c r="J281" s="111"/>
@@ -8612,37 +8612,37 @@
       <c r="A283" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B283" s="93" t="s">
+      <c r="B283" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C283" s="93"/>
-      <c r="D283" s="93"/>
-      <c r="E283" s="93"/>
-      <c r="F283" s="93"/>
+      <c r="C283" s="80"/>
+      <c r="D283" s="80"/>
+      <c r="E283" s="80"/>
+      <c r="F283" s="80"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="32">
         <v>1</v>
       </c>
-      <c r="B284" s="90" t="s">
+      <c r="B284" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C284" s="90"/>
-      <c r="D284" s="90"/>
-      <c r="E284" s="90"/>
-      <c r="F284" s="90"/>
+      <c r="C284" s="96"/>
+      <c r="D284" s="96"/>
+      <c r="E284" s="96"/>
+      <c r="F284" s="96"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="32">
         <v>2</v>
       </c>
-      <c r="B285" s="90" t="s">
+      <c r="B285" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C285" s="90"/>
-      <c r="D285" s="90"/>
-      <c r="E285" s="90"/>
-      <c r="F285" s="90"/>
+      <c r="C285" s="96"/>
+      <c r="D285" s="96"/>
+      <c r="E285" s="96"/>
+      <c r="F285" s="96"/>
       <c r="G285" s="27"/>
       <c r="H285" s="27"/>
       <c r="I285" s="27"/>
@@ -8664,15 +8664,15 @@
       <c r="A287" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B287" s="94" t="s">
+      <c r="B287" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C287" s="94"/>
-      <c r="D287" s="94" t="s">
+      <c r="C287" s="81"/>
+      <c r="D287" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E287" s="94"/>
-      <c r="F287" s="94"/>
+      <c r="E287" s="81"/>
+      <c r="F287" s="81"/>
       <c r="G287" s="27"/>
       <c r="H287" s="27"/>
       <c r="I287" s="27"/>
@@ -8682,15 +8682,15 @@
       <c r="A288" s="32">
         <v>1</v>
       </c>
-      <c r="B288" s="90" t="s">
+      <c r="B288" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C288" s="90"/>
-      <c r="D288" s="90" t="s">
+      <c r="C288" s="96"/>
+      <c r="D288" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="E288" s="90"/>
-      <c r="F288" s="90"/>
+      <c r="E288" s="96"/>
+      <c r="F288" s="96"/>
       <c r="G288" s="27"/>
       <c r="H288" s="27"/>
       <c r="I288" s="27"/>
@@ -8698,21 +8698,21 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="34"/>
-      <c r="B289" s="91"/>
-      <c r="C289" s="91"/>
-      <c r="D289" s="91"/>
-      <c r="E289" s="91"/>
-      <c r="F289" s="91"/>
+      <c r="B289" s="97"/>
+      <c r="C289" s="97"/>
+      <c r="D289" s="97"/>
+      <c r="E289" s="97"/>
+      <c r="F289" s="97"/>
       <c r="G289" s="26"/>
       <c r="H289" s="26"/>
       <c r="I289" s="26"/>
       <c r="J289" s="26"/>
     </row>
     <row r="290" spans="1:11" ht="15">
-      <c r="A290" s="92" t="s">
+      <c r="A290" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B290" s="92"/>
+      <c r="B290" s="82"/>
       <c r="C290" s="26" t="s">
         <v>159</v>
       </c>
@@ -8728,56 +8728,56 @@
       <c r="C291" s="34"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="80" t="s">
+      <c r="A292" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B292" s="80" t="s">
+      <c r="B292" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C292" s="81"/>
-      <c r="D292" s="83" t="s">
+      <c r="C292" s="84"/>
+      <c r="D292" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E292" s="84"/>
-      <c r="F292" s="86" t="s">
+      <c r="E292" s="87"/>
+      <c r="F292" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G292" s="87"/>
-      <c r="H292" s="80" t="s">
+      <c r="G292" s="90"/>
+      <c r="H292" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I292" s="80"/>
-      <c r="J292" s="80"/>
+      <c r="I292" s="83"/>
+      <c r="J292" s="83"/>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="81"/>
-      <c r="B293" s="82"/>
-      <c r="C293" s="82"/>
-      <c r="D293" s="85"/>
-      <c r="E293" s="85"/>
-      <c r="F293" s="88"/>
-      <c r="G293" s="89"/>
-      <c r="H293" s="80"/>
-      <c r="I293" s="80"/>
-      <c r="J293" s="80"/>
+      <c r="A293" s="84"/>
+      <c r="B293" s="85"/>
+      <c r="C293" s="85"/>
+      <c r="D293" s="88"/>
+      <c r="E293" s="88"/>
+      <c r="F293" s="91"/>
+      <c r="G293" s="92"/>
+      <c r="H293" s="83"/>
+      <c r="I293" s="83"/>
+      <c r="J293" s="83"/>
     </row>
     <row r="294" spans="1:11" ht="13.9" customHeight="1">
       <c r="A294" s="41">
         <v>1</v>
       </c>
-      <c r="B294" s="70" t="s">
+      <c r="B294" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C294" s="110"/>
-      <c r="D294" s="70" t="s">
+      <c r="D294" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="E294" s="95"/>
-      <c r="F294" s="71" t="s">
+      <c r="E294" s="99"/>
+      <c r="F294" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G294" s="72"/>
-      <c r="H294" s="70" t="s">
+      <c r="G294" s="95"/>
+      <c r="H294" s="93" t="s">
         <v>163</v>
       </c>
       <c r="I294" s="111"/>
@@ -8892,7 +8892,7 @@
       <c r="H304" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I304" s="70" t="s">
+      <c r="I304" s="93" t="s">
         <v>163</v>
       </c>
       <c r="J304" s="111"/>
@@ -8911,37 +8911,37 @@
       <c r="A306" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B306" s="93" t="s">
+      <c r="B306" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C306" s="93"/>
-      <c r="D306" s="93"/>
-      <c r="E306" s="93"/>
-      <c r="F306" s="93"/>
+      <c r="C306" s="80"/>
+      <c r="D306" s="80"/>
+      <c r="E306" s="80"/>
+      <c r="F306" s="80"/>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="32">
         <v>1</v>
       </c>
-      <c r="B307" s="90" t="s">
+      <c r="B307" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C307" s="90"/>
-      <c r="D307" s="90"/>
-      <c r="E307" s="90"/>
-      <c r="F307" s="90"/>
+      <c r="C307" s="96"/>
+      <c r="D307" s="96"/>
+      <c r="E307" s="96"/>
+      <c r="F307" s="96"/>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="32">
         <v>2</v>
       </c>
-      <c r="B308" s="90" t="s">
+      <c r="B308" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C308" s="90"/>
-      <c r="D308" s="90"/>
-      <c r="E308" s="90"/>
-      <c r="F308" s="90"/>
+      <c r="C308" s="96"/>
+      <c r="D308" s="96"/>
+      <c r="E308" s="96"/>
+      <c r="F308" s="96"/>
       <c r="G308" s="27"/>
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
@@ -8963,15 +8963,15 @@
       <c r="A310" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B310" s="94" t="s">
+      <c r="B310" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C310" s="94"/>
-      <c r="D310" s="94" t="s">
+      <c r="C310" s="81"/>
+      <c r="D310" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E310" s="94"/>
-      <c r="F310" s="94"/>
+      <c r="E310" s="81"/>
+      <c r="F310" s="81"/>
       <c r="G310" s="27"/>
       <c r="H310" s="27"/>
       <c r="I310" s="27"/>
@@ -8981,15 +8981,15 @@
       <c r="A311" s="32">
         <v>1</v>
       </c>
-      <c r="B311" s="90" t="s">
+      <c r="B311" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C311" s="90"/>
-      <c r="D311" s="90" t="s">
+      <c r="C311" s="96"/>
+      <c r="D311" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E311" s="90"/>
-      <c r="F311" s="90"/>
+      <c r="E311" s="96"/>
+      <c r="F311" s="96"/>
       <c r="G311" s="27"/>
       <c r="H311" s="27"/>
       <c r="I311" s="27"/>
@@ -8997,21 +8997,21 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="34"/>
-      <c r="B312" s="91"/>
-      <c r="C312" s="91"/>
-      <c r="D312" s="91"/>
-      <c r="E312" s="91"/>
-      <c r="F312" s="91"/>
+      <c r="B312" s="97"/>
+      <c r="C312" s="97"/>
+      <c r="D312" s="97"/>
+      <c r="E312" s="97"/>
+      <c r="F312" s="97"/>
       <c r="G312" s="26"/>
       <c r="H312" s="26"/>
       <c r="I312" s="26"/>
       <c r="J312" s="26"/>
     </row>
     <row r="313" spans="1:10" ht="15">
-      <c r="A313" s="92" t="s">
+      <c r="A313" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B313" s="92"/>
+      <c r="B313" s="82"/>
       <c r="C313" s="26" t="s">
         <v>159</v>
       </c>
@@ -9027,56 +9027,56 @@
       <c r="C314" s="34"/>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="80" t="s">
+      <c r="A315" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B315" s="80" t="s">
+      <c r="B315" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C315" s="81"/>
-      <c r="D315" s="83" t="s">
+      <c r="C315" s="84"/>
+      <c r="D315" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E315" s="84"/>
-      <c r="F315" s="86" t="s">
+      <c r="E315" s="87"/>
+      <c r="F315" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G315" s="87"/>
-      <c r="H315" s="80" t="s">
+      <c r="G315" s="90"/>
+      <c r="H315" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I315" s="80"/>
-      <c r="J315" s="80"/>
+      <c r="I315" s="83"/>
+      <c r="J315" s="83"/>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="81"/>
-      <c r="B316" s="82"/>
-      <c r="C316" s="82"/>
-      <c r="D316" s="85"/>
-      <c r="E316" s="85"/>
-      <c r="F316" s="88"/>
-      <c r="G316" s="89"/>
-      <c r="H316" s="80"/>
-      <c r="I316" s="80"/>
-      <c r="J316" s="80"/>
+      <c r="A316" s="84"/>
+      <c r="B316" s="85"/>
+      <c r="C316" s="85"/>
+      <c r="D316" s="88"/>
+      <c r="E316" s="88"/>
+      <c r="F316" s="91"/>
+      <c r="G316" s="92"/>
+      <c r="H316" s="83"/>
+      <c r="I316" s="83"/>
+      <c r="J316" s="83"/>
     </row>
     <row r="317" spans="1:10" ht="13.9" customHeight="1">
       <c r="A317" s="41">
         <v>1</v>
       </c>
-      <c r="B317" s="70" t="s">
+      <c r="B317" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C317" s="110"/>
-      <c r="D317" s="70" t="s">
+      <c r="D317" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="E317" s="95"/>
-      <c r="F317" s="71" t="s">
+      <c r="E317" s="99"/>
+      <c r="F317" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G317" s="72"/>
-      <c r="H317" s="70" t="s">
+      <c r="G317" s="95"/>
+      <c r="H317" s="93" t="s">
         <v>163</v>
       </c>
       <c r="I317" s="111"/>
@@ -9191,7 +9191,7 @@
       <c r="H327" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I327" s="70" t="s">
+      <c r="I327" s="93" t="s">
         <v>163</v>
       </c>
       <c r="J327" s="111"/>
@@ -9210,37 +9210,37 @@
       <c r="A329" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B329" s="93" t="s">
+      <c r="B329" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C329" s="93"/>
-      <c r="D329" s="93"/>
-      <c r="E329" s="93"/>
-      <c r="F329" s="93"/>
+      <c r="C329" s="80"/>
+      <c r="D329" s="80"/>
+      <c r="E329" s="80"/>
+      <c r="F329" s="80"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="32">
         <v>1</v>
       </c>
-      <c r="B330" s="90" t="s">
+      <c r="B330" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C330" s="90"/>
-      <c r="D330" s="90"/>
-      <c r="E330" s="90"/>
-      <c r="F330" s="90"/>
+      <c r="C330" s="96"/>
+      <c r="D330" s="96"/>
+      <c r="E330" s="96"/>
+      <c r="F330" s="96"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="32">
         <v>2</v>
       </c>
-      <c r="B331" s="90" t="s">
+      <c r="B331" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C331" s="90"/>
-      <c r="D331" s="90"/>
-      <c r="E331" s="90"/>
-      <c r="F331" s="90"/>
+      <c r="C331" s="96"/>
+      <c r="D331" s="96"/>
+      <c r="E331" s="96"/>
+      <c r="F331" s="96"/>
       <c r="G331" s="27"/>
       <c r="H331" s="27"/>
       <c r="I331" s="27"/>
@@ -9262,15 +9262,15 @@
       <c r="A333" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B333" s="94" t="s">
+      <c r="B333" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C333" s="94"/>
-      <c r="D333" s="94" t="s">
+      <c r="C333" s="81"/>
+      <c r="D333" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E333" s="94"/>
-      <c r="F333" s="94"/>
+      <c r="E333" s="81"/>
+      <c r="F333" s="81"/>
       <c r="G333" s="27"/>
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
@@ -9280,15 +9280,15 @@
       <c r="A334" s="32">
         <v>1</v>
       </c>
-      <c r="B334" s="90" t="s">
+      <c r="B334" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C334" s="90"/>
-      <c r="D334" s="90" t="s">
+      <c r="C334" s="96"/>
+      <c r="D334" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="E334" s="90"/>
-      <c r="F334" s="90"/>
+      <c r="E334" s="96"/>
+      <c r="F334" s="96"/>
       <c r="G334" s="27"/>
       <c r="H334" s="27"/>
       <c r="I334" s="27"/>
@@ -9296,21 +9296,21 @@
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="34"/>
-      <c r="B335" s="91"/>
-      <c r="C335" s="91"/>
-      <c r="D335" s="91"/>
-      <c r="E335" s="91"/>
-      <c r="F335" s="91"/>
+      <c r="B335" s="97"/>
+      <c r="C335" s="97"/>
+      <c r="D335" s="97"/>
+      <c r="E335" s="97"/>
+      <c r="F335" s="97"/>
       <c r="G335" s="26"/>
       <c r="H335" s="26"/>
       <c r="I335" s="26"/>
       <c r="J335" s="26"/>
     </row>
     <row r="336" spans="1:11" ht="15">
-      <c r="A336" s="92" t="s">
+      <c r="A336" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B336" s="92"/>
+      <c r="B336" s="82"/>
       <c r="C336" s="26" t="s">
         <v>159</v>
       </c>
@@ -9326,56 +9326,56 @@
       <c r="C337" s="34"/>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="80" t="s">
+      <c r="A338" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B338" s="80" t="s">
+      <c r="B338" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C338" s="81"/>
-      <c r="D338" s="83" t="s">
+      <c r="C338" s="84"/>
+      <c r="D338" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E338" s="84"/>
-      <c r="F338" s="86" t="s">
+      <c r="E338" s="87"/>
+      <c r="F338" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G338" s="87"/>
-      <c r="H338" s="80" t="s">
+      <c r="G338" s="90"/>
+      <c r="H338" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I338" s="80"/>
-      <c r="J338" s="80"/>
+      <c r="I338" s="83"/>
+      <c r="J338" s="83"/>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="81"/>
-      <c r="B339" s="82"/>
-      <c r="C339" s="82"/>
-      <c r="D339" s="85"/>
-      <c r="E339" s="85"/>
-      <c r="F339" s="88"/>
-      <c r="G339" s="89"/>
-      <c r="H339" s="80"/>
-      <c r="I339" s="80"/>
-      <c r="J339" s="80"/>
+      <c r="A339" s="84"/>
+      <c r="B339" s="85"/>
+      <c r="C339" s="85"/>
+      <c r="D339" s="88"/>
+      <c r="E339" s="88"/>
+      <c r="F339" s="91"/>
+      <c r="G339" s="92"/>
+      <c r="H339" s="83"/>
+      <c r="I339" s="83"/>
+      <c r="J339" s="83"/>
     </row>
     <row r="340" spans="1:10" ht="13.9" customHeight="1">
       <c r="A340" s="41">
         <v>1</v>
       </c>
-      <c r="B340" s="70" t="s">
+      <c r="B340" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C340" s="110"/>
-      <c r="D340" s="70" t="s">
+      <c r="D340" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="E340" s="95"/>
-      <c r="F340" s="71" t="s">
+      <c r="E340" s="99"/>
+      <c r="F340" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G340" s="72"/>
-      <c r="H340" s="70" t="s">
+      <c r="G340" s="95"/>
+      <c r="H340" s="93" t="s">
         <v>163</v>
       </c>
       <c r="I340" s="111"/>
@@ -9506,37 +9506,37 @@
       <c r="A352" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B352" s="93" t="s">
+      <c r="B352" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C352" s="93"/>
-      <c r="D352" s="93"/>
-      <c r="E352" s="93"/>
-      <c r="F352" s="93"/>
+      <c r="C352" s="80"/>
+      <c r="D352" s="80"/>
+      <c r="E352" s="80"/>
+      <c r="F352" s="80"/>
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="32">
         <v>1</v>
       </c>
-      <c r="B353" s="90" t="s">
+      <c r="B353" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C353" s="90"/>
-      <c r="D353" s="90"/>
-      <c r="E353" s="90"/>
-      <c r="F353" s="90"/>
+      <c r="C353" s="96"/>
+      <c r="D353" s="96"/>
+      <c r="E353" s="96"/>
+      <c r="F353" s="96"/>
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="32">
         <v>2</v>
       </c>
-      <c r="B354" s="90" t="s">
+      <c r="B354" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C354" s="90"/>
-      <c r="D354" s="90"/>
-      <c r="E354" s="90"/>
-      <c r="F354" s="90"/>
+      <c r="C354" s="96"/>
+      <c r="D354" s="96"/>
+      <c r="E354" s="96"/>
+      <c r="F354" s="96"/>
       <c r="G354" s="27"/>
       <c r="H354" s="27"/>
       <c r="I354" s="27"/>
@@ -9558,15 +9558,15 @@
       <c r="A356" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B356" s="94" t="s">
+      <c r="B356" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C356" s="94"/>
-      <c r="D356" s="94" t="s">
+      <c r="C356" s="81"/>
+      <c r="D356" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E356" s="94"/>
-      <c r="F356" s="94"/>
+      <c r="E356" s="81"/>
+      <c r="F356" s="81"/>
       <c r="G356" s="27"/>
       <c r="H356" s="27"/>
       <c r="I356" s="27"/>
@@ -9576,15 +9576,15 @@
       <c r="A357" s="32">
         <v>1</v>
       </c>
-      <c r="B357" s="90" t="s">
+      <c r="B357" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C357" s="90"/>
-      <c r="D357" s="90" t="s">
+      <c r="C357" s="96"/>
+      <c r="D357" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="E357" s="90"/>
-      <c r="F357" s="90"/>
+      <c r="E357" s="96"/>
+      <c r="F357" s="96"/>
       <c r="G357" s="27"/>
       <c r="H357" s="27"/>
       <c r="I357" s="27"/>
@@ -9592,21 +9592,21 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="34"/>
-      <c r="B358" s="91"/>
-      <c r="C358" s="91"/>
-      <c r="D358" s="91"/>
-      <c r="E358" s="91"/>
-      <c r="F358" s="91"/>
+      <c r="B358" s="97"/>
+      <c r="C358" s="97"/>
+      <c r="D358" s="97"/>
+      <c r="E358" s="97"/>
+      <c r="F358" s="97"/>
       <c r="G358" s="26"/>
       <c r="H358" s="26"/>
       <c r="I358" s="26"/>
       <c r="J358" s="26"/>
     </row>
     <row r="359" spans="1:10" ht="15">
-      <c r="A359" s="92" t="s">
+      <c r="A359" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B359" s="92"/>
+      <c r="B359" s="82"/>
       <c r="C359" s="26" t="s">
         <v>159</v>
       </c>
@@ -9622,56 +9622,56 @@
       <c r="C360" s="34"/>
     </row>
     <row r="361" spans="1:10">
-      <c r="A361" s="80" t="s">
+      <c r="A361" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B361" s="80" t="s">
+      <c r="B361" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C361" s="81"/>
-      <c r="D361" s="83" t="s">
+      <c r="C361" s="84"/>
+      <c r="D361" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E361" s="84"/>
-      <c r="F361" s="86" t="s">
+      <c r="E361" s="87"/>
+      <c r="F361" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G361" s="87"/>
-      <c r="H361" s="80" t="s">
+      <c r="G361" s="90"/>
+      <c r="H361" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I361" s="80"/>
-      <c r="J361" s="80"/>
+      <c r="I361" s="83"/>
+      <c r="J361" s="83"/>
     </row>
     <row r="362" spans="1:10">
-      <c r="A362" s="81"/>
-      <c r="B362" s="82"/>
-      <c r="C362" s="82"/>
-      <c r="D362" s="85"/>
-      <c r="E362" s="85"/>
-      <c r="F362" s="88"/>
-      <c r="G362" s="89"/>
-      <c r="H362" s="80"/>
-      <c r="I362" s="80"/>
-      <c r="J362" s="80"/>
+      <c r="A362" s="84"/>
+      <c r="B362" s="85"/>
+      <c r="C362" s="85"/>
+      <c r="D362" s="88"/>
+      <c r="E362" s="88"/>
+      <c r="F362" s="91"/>
+      <c r="G362" s="92"/>
+      <c r="H362" s="83"/>
+      <c r="I362" s="83"/>
+      <c r="J362" s="83"/>
     </row>
     <row r="363" spans="1:10" ht="14.25" customHeight="1">
       <c r="A363" s="41">
         <v>1</v>
       </c>
-      <c r="B363" s="70" t="s">
+      <c r="B363" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C363" s="110"/>
-      <c r="D363" s="70" t="s">
+      <c r="D363" s="93" t="s">
         <v>161</v>
       </c>
       <c r="E363" s="110"/>
-      <c r="F363" s="71" t="s">
+      <c r="F363" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G363" s="72"/>
-      <c r="H363" s="70" t="s">
+      <c r="G363" s="95"/>
+      <c r="H363" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I363" s="111"/>
@@ -9802,37 +9802,37 @@
       <c r="A375" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B375" s="93" t="s">
+      <c r="B375" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C375" s="93"/>
-      <c r="D375" s="93"/>
-      <c r="E375" s="93"/>
-      <c r="F375" s="93"/>
+      <c r="C375" s="80"/>
+      <c r="D375" s="80"/>
+      <c r="E375" s="80"/>
+      <c r="F375" s="80"/>
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="32">
         <v>1</v>
       </c>
-      <c r="B376" s="90" t="s">
+      <c r="B376" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C376" s="90"/>
-      <c r="D376" s="90"/>
-      <c r="E376" s="90"/>
-      <c r="F376" s="90"/>
+      <c r="C376" s="96"/>
+      <c r="D376" s="96"/>
+      <c r="E376" s="96"/>
+      <c r="F376" s="96"/>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="32">
         <v>2</v>
       </c>
-      <c r="B377" s="90" t="s">
+      <c r="B377" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C377" s="90"/>
-      <c r="D377" s="90"/>
-      <c r="E377" s="90"/>
-      <c r="F377" s="90"/>
+      <c r="C377" s="96"/>
+      <c r="D377" s="96"/>
+      <c r="E377" s="96"/>
+      <c r="F377" s="96"/>
       <c r="G377" s="27"/>
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
@@ -9854,15 +9854,15 @@
       <c r="A379" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B379" s="94" t="s">
+      <c r="B379" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C379" s="94"/>
-      <c r="D379" s="94" t="s">
+      <c r="C379" s="81"/>
+      <c r="D379" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E379" s="94"/>
-      <c r="F379" s="94"/>
+      <c r="E379" s="81"/>
+      <c r="F379" s="81"/>
       <c r="G379" s="27"/>
       <c r="H379" s="27"/>
       <c r="I379" s="27"/>
@@ -9872,15 +9872,15 @@
       <c r="A380" s="32">
         <v>1</v>
       </c>
-      <c r="B380" s="90" t="s">
+      <c r="B380" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C380" s="90"/>
-      <c r="D380" s="90" t="s">
+      <c r="C380" s="96"/>
+      <c r="D380" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="E380" s="90"/>
-      <c r="F380" s="90"/>
+      <c r="E380" s="96"/>
+      <c r="F380" s="96"/>
       <c r="G380" s="27"/>
       <c r="H380" s="27"/>
       <c r="I380" s="27"/>
@@ -9888,21 +9888,21 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="34"/>
-      <c r="B381" s="91"/>
-      <c r="C381" s="91"/>
-      <c r="D381" s="91"/>
-      <c r="E381" s="91"/>
-      <c r="F381" s="91"/>
+      <c r="B381" s="97"/>
+      <c r="C381" s="97"/>
+      <c r="D381" s="97"/>
+      <c r="E381" s="97"/>
+      <c r="F381" s="97"/>
       <c r="G381" s="26"/>
       <c r="H381" s="26"/>
       <c r="I381" s="26"/>
       <c r="J381" s="26"/>
     </row>
     <row r="382" spans="1:10" ht="15">
-      <c r="A382" s="92" t="s">
+      <c r="A382" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B382" s="92"/>
+      <c r="B382" s="82"/>
       <c r="C382" s="26" t="s">
         <v>159</v>
       </c>
@@ -9918,56 +9918,56 @@
       <c r="C383" s="34"/>
     </row>
     <row r="384" spans="1:10">
-      <c r="A384" s="80" t="s">
+      <c r="A384" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B384" s="80" t="s">
+      <c r="B384" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C384" s="81"/>
-      <c r="D384" s="83" t="s">
+      <c r="C384" s="84"/>
+      <c r="D384" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E384" s="84"/>
-      <c r="F384" s="86" t="s">
+      <c r="E384" s="87"/>
+      <c r="F384" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G384" s="87"/>
-      <c r="H384" s="80" t="s">
+      <c r="G384" s="90"/>
+      <c r="H384" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I384" s="80"/>
-      <c r="J384" s="80"/>
+      <c r="I384" s="83"/>
+      <c r="J384" s="83"/>
     </row>
     <row r="385" spans="1:10">
-      <c r="A385" s="81"/>
-      <c r="B385" s="82"/>
-      <c r="C385" s="82"/>
-      <c r="D385" s="85"/>
-      <c r="E385" s="85"/>
-      <c r="F385" s="88"/>
-      <c r="G385" s="89"/>
-      <c r="H385" s="80"/>
-      <c r="I385" s="80"/>
-      <c r="J385" s="80"/>
+      <c r="A385" s="84"/>
+      <c r="B385" s="85"/>
+      <c r="C385" s="85"/>
+      <c r="D385" s="88"/>
+      <c r="E385" s="88"/>
+      <c r="F385" s="91"/>
+      <c r="G385" s="92"/>
+      <c r="H385" s="83"/>
+      <c r="I385" s="83"/>
+      <c r="J385" s="83"/>
     </row>
     <row r="386" spans="1:10" ht="14.25" customHeight="1">
       <c r="A386" s="41">
         <v>1</v>
       </c>
-      <c r="B386" s="70" t="s">
+      <c r="B386" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C386" s="110"/>
-      <c r="D386" s="70" t="s">
+      <c r="D386" s="93" t="s">
         <v>161</v>
       </c>
       <c r="E386" s="110"/>
-      <c r="F386" s="71" t="s">
+      <c r="F386" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G386" s="72"/>
-      <c r="H386" s="70" t="s">
+      <c r="G386" s="95"/>
+      <c r="H386" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I386" s="111"/>
@@ -10098,37 +10098,37 @@
       <c r="A398" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B398" s="93" t="s">
+      <c r="B398" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C398" s="93"/>
-      <c r="D398" s="93"/>
-      <c r="E398" s="93"/>
-      <c r="F398" s="93"/>
+      <c r="C398" s="80"/>
+      <c r="D398" s="80"/>
+      <c r="E398" s="80"/>
+      <c r="F398" s="80"/>
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="32">
         <v>1</v>
       </c>
-      <c r="B399" s="90" t="s">
+      <c r="B399" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C399" s="90"/>
-      <c r="D399" s="90"/>
-      <c r="E399" s="90"/>
-      <c r="F399" s="90"/>
+      <c r="C399" s="96"/>
+      <c r="D399" s="96"/>
+      <c r="E399" s="96"/>
+      <c r="F399" s="96"/>
     </row>
     <row r="400" spans="1:10">
       <c r="A400" s="32">
         <v>2</v>
       </c>
-      <c r="B400" s="90" t="s">
+      <c r="B400" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C400" s="90"/>
-      <c r="D400" s="90"/>
-      <c r="E400" s="90"/>
-      <c r="F400" s="90"/>
+      <c r="C400" s="96"/>
+      <c r="D400" s="96"/>
+      <c r="E400" s="96"/>
+      <c r="F400" s="96"/>
       <c r="G400" s="27"/>
       <c r="H400" s="27"/>
       <c r="I400" s="27"/>
@@ -10150,15 +10150,15 @@
       <c r="A402" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B402" s="94" t="s">
+      <c r="B402" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C402" s="94"/>
-      <c r="D402" s="94" t="s">
+      <c r="C402" s="81"/>
+      <c r="D402" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E402" s="94"/>
-      <c r="F402" s="94"/>
+      <c r="E402" s="81"/>
+      <c r="F402" s="81"/>
       <c r="G402" s="27"/>
       <c r="H402" s="27"/>
       <c r="I402" s="27"/>
@@ -10168,15 +10168,15 @@
       <c r="A403" s="32">
         <v>1</v>
       </c>
-      <c r="B403" s="90" t="s">
+      <c r="B403" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C403" s="90"/>
-      <c r="D403" s="90" t="s">
+      <c r="C403" s="96"/>
+      <c r="D403" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E403" s="90"/>
-      <c r="F403" s="90"/>
+      <c r="E403" s="96"/>
+      <c r="F403" s="96"/>
       <c r="G403" s="27"/>
       <c r="H403" s="27"/>
       <c r="I403" s="27"/>
@@ -10184,21 +10184,21 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="34"/>
-      <c r="B404" s="91"/>
-      <c r="C404" s="91"/>
-      <c r="D404" s="91"/>
-      <c r="E404" s="91"/>
-      <c r="F404" s="91"/>
+      <c r="B404" s="97"/>
+      <c r="C404" s="97"/>
+      <c r="D404" s="97"/>
+      <c r="E404" s="97"/>
+      <c r="F404" s="97"/>
       <c r="G404" s="26"/>
       <c r="H404" s="26"/>
       <c r="I404" s="26"/>
       <c r="J404" s="26"/>
     </row>
     <row r="405" spans="1:10" ht="15">
-      <c r="A405" s="92" t="s">
+      <c r="A405" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B405" s="92"/>
+      <c r="B405" s="82"/>
       <c r="C405" s="26" t="s">
         <v>159</v>
       </c>
@@ -10214,56 +10214,56 @@
       <c r="C406" s="34"/>
     </row>
     <row r="407" spans="1:10">
-      <c r="A407" s="80" t="s">
+      <c r="A407" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B407" s="80" t="s">
+      <c r="B407" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C407" s="81"/>
-      <c r="D407" s="83" t="s">
+      <c r="C407" s="84"/>
+      <c r="D407" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E407" s="84"/>
-      <c r="F407" s="86" t="s">
+      <c r="E407" s="87"/>
+      <c r="F407" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G407" s="87"/>
-      <c r="H407" s="80" t="s">
+      <c r="G407" s="90"/>
+      <c r="H407" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I407" s="80"/>
-      <c r="J407" s="80"/>
+      <c r="I407" s="83"/>
+      <c r="J407" s="83"/>
     </row>
     <row r="408" spans="1:10">
-      <c r="A408" s="81"/>
-      <c r="B408" s="82"/>
-      <c r="C408" s="82"/>
-      <c r="D408" s="85"/>
-      <c r="E408" s="85"/>
-      <c r="F408" s="88"/>
-      <c r="G408" s="89"/>
-      <c r="H408" s="80"/>
-      <c r="I408" s="80"/>
-      <c r="J408" s="80"/>
+      <c r="A408" s="84"/>
+      <c r="B408" s="85"/>
+      <c r="C408" s="85"/>
+      <c r="D408" s="88"/>
+      <c r="E408" s="88"/>
+      <c r="F408" s="91"/>
+      <c r="G408" s="92"/>
+      <c r="H408" s="83"/>
+      <c r="I408" s="83"/>
+      <c r="J408" s="83"/>
     </row>
     <row r="409" spans="1:10" ht="14.25" customHeight="1">
       <c r="A409" s="41">
         <v>1</v>
       </c>
-      <c r="B409" s="70" t="s">
+      <c r="B409" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C409" s="110"/>
-      <c r="D409" s="70" t="s">
+      <c r="D409" s="93" t="s">
         <v>161</v>
       </c>
       <c r="E409" s="110"/>
-      <c r="F409" s="71" t="s">
+      <c r="F409" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G409" s="72"/>
-      <c r="H409" s="70" t="s">
+      <c r="G409" s="95"/>
+      <c r="H409" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I409" s="111"/>
@@ -10394,37 +10394,37 @@
       <c r="A420" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B420" s="93" t="s">
+      <c r="B420" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C420" s="93"/>
-      <c r="D420" s="93"/>
-      <c r="E420" s="93"/>
-      <c r="F420" s="93"/>
+      <c r="C420" s="80"/>
+      <c r="D420" s="80"/>
+      <c r="E420" s="80"/>
+      <c r="F420" s="80"/>
     </row>
     <row r="421" spans="1:10">
       <c r="A421" s="32">
         <v>1</v>
       </c>
-      <c r="B421" s="90" t="s">
+      <c r="B421" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C421" s="90"/>
-      <c r="D421" s="90"/>
-      <c r="E421" s="90"/>
-      <c r="F421" s="90"/>
+      <c r="C421" s="96"/>
+      <c r="D421" s="96"/>
+      <c r="E421" s="96"/>
+      <c r="F421" s="96"/>
     </row>
     <row r="422" spans="1:10">
       <c r="A422" s="32">
         <v>2</v>
       </c>
-      <c r="B422" s="90" t="s">
+      <c r="B422" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C422" s="90"/>
-      <c r="D422" s="90"/>
-      <c r="E422" s="90"/>
-      <c r="F422" s="90"/>
+      <c r="C422" s="96"/>
+      <c r="D422" s="96"/>
+      <c r="E422" s="96"/>
+      <c r="F422" s="96"/>
       <c r="G422" s="27"/>
       <c r="H422" s="27"/>
       <c r="I422" s="27"/>
@@ -10446,15 +10446,15 @@
       <c r="A424" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B424" s="94" t="s">
+      <c r="B424" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C424" s="94"/>
-      <c r="D424" s="94" t="s">
+      <c r="C424" s="81"/>
+      <c r="D424" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E424" s="94"/>
-      <c r="F424" s="94"/>
+      <c r="E424" s="81"/>
+      <c r="F424" s="81"/>
       <c r="G424" s="27"/>
       <c r="H424" s="27"/>
       <c r="I424" s="27"/>
@@ -10464,15 +10464,15 @@
       <c r="A425" s="32">
         <v>1</v>
       </c>
-      <c r="B425" s="90" t="s">
+      <c r="B425" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C425" s="90"/>
-      <c r="D425" s="90" t="s">
+      <c r="C425" s="96"/>
+      <c r="D425" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="E425" s="90"/>
-      <c r="F425" s="90"/>
+      <c r="E425" s="96"/>
+      <c r="F425" s="96"/>
       <c r="G425" s="27"/>
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
@@ -10480,21 +10480,21 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426" s="34"/>
-      <c r="B426" s="91"/>
-      <c r="C426" s="91"/>
-      <c r="D426" s="91"/>
-      <c r="E426" s="91"/>
-      <c r="F426" s="91"/>
+      <c r="B426" s="97"/>
+      <c r="C426" s="97"/>
+      <c r="D426" s="97"/>
+      <c r="E426" s="97"/>
+      <c r="F426" s="97"/>
       <c r="G426" s="26"/>
       <c r="H426" s="26"/>
       <c r="I426" s="26"/>
       <c r="J426" s="26"/>
     </row>
     <row r="427" spans="1:10" ht="15">
-      <c r="A427" s="92" t="s">
+      <c r="A427" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B427" s="92"/>
+      <c r="B427" s="82"/>
       <c r="C427" s="26" t="s">
         <v>159</v>
       </c>
@@ -10510,56 +10510,56 @@
       <c r="C428" s="34"/>
     </row>
     <row r="429" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A429" s="80" t="s">
+      <c r="A429" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B429" s="80" t="s">
+      <c r="B429" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C429" s="81"/>
-      <c r="D429" s="83" t="s">
+      <c r="C429" s="84"/>
+      <c r="D429" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E429" s="84"/>
-      <c r="F429" s="86" t="s">
+      <c r="E429" s="87"/>
+      <c r="F429" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G429" s="87"/>
-      <c r="H429" s="80" t="s">
+      <c r="G429" s="90"/>
+      <c r="H429" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I429" s="80"/>
-      <c r="J429" s="80"/>
+      <c r="I429" s="83"/>
+      <c r="J429" s="83"/>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="81"/>
-      <c r="B430" s="82"/>
-      <c r="C430" s="82"/>
-      <c r="D430" s="85"/>
-      <c r="E430" s="85"/>
-      <c r="F430" s="88"/>
-      <c r="G430" s="89"/>
-      <c r="H430" s="80"/>
-      <c r="I430" s="80"/>
-      <c r="J430" s="80"/>
+      <c r="A430" s="84"/>
+      <c r="B430" s="85"/>
+      <c r="C430" s="85"/>
+      <c r="D430" s="88"/>
+      <c r="E430" s="88"/>
+      <c r="F430" s="91"/>
+      <c r="G430" s="92"/>
+      <c r="H430" s="83"/>
+      <c r="I430" s="83"/>
+      <c r="J430" s="83"/>
     </row>
     <row r="431" spans="1:10">
       <c r="A431" s="41">
         <v>1</v>
       </c>
-      <c r="B431" s="70" t="s">
+      <c r="B431" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C431" s="110"/>
-      <c r="D431" s="70" t="s">
+      <c r="D431" s="93" t="s">
         <v>192</v>
       </c>
       <c r="E431" s="110"/>
-      <c r="F431" s="71" t="s">
+      <c r="F431" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G431" s="72"/>
-      <c r="H431" s="70" t="s">
+      <c r="G431" s="95"/>
+      <c r="H431" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I431" s="111"/>
@@ -10690,37 +10690,37 @@
       <c r="A442" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B442" s="93" t="s">
+      <c r="B442" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C442" s="93"/>
-      <c r="D442" s="93"/>
-      <c r="E442" s="93"/>
-      <c r="F442" s="93"/>
+      <c r="C442" s="80"/>
+      <c r="D442" s="80"/>
+      <c r="E442" s="80"/>
+      <c r="F442" s="80"/>
     </row>
     <row r="443" spans="1:10">
       <c r="A443" s="32">
         <v>1</v>
       </c>
-      <c r="B443" s="90" t="s">
+      <c r="B443" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C443" s="90"/>
-      <c r="D443" s="90"/>
-      <c r="E443" s="90"/>
-      <c r="F443" s="90"/>
+      <c r="C443" s="96"/>
+      <c r="D443" s="96"/>
+      <c r="E443" s="96"/>
+      <c r="F443" s="96"/>
     </row>
     <row r="444" spans="1:10">
       <c r="A444" s="32">
         <v>2</v>
       </c>
-      <c r="B444" s="90" t="s">
+      <c r="B444" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C444" s="90"/>
-      <c r="D444" s="90"/>
-      <c r="E444" s="90"/>
-      <c r="F444" s="90"/>
+      <c r="C444" s="96"/>
+      <c r="D444" s="96"/>
+      <c r="E444" s="96"/>
+      <c r="F444" s="96"/>
       <c r="G444" s="27"/>
       <c r="H444" s="27"/>
       <c r="I444" s="27"/>
@@ -10742,15 +10742,15 @@
       <c r="A446" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B446" s="94" t="s">
+      <c r="B446" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C446" s="94"/>
-      <c r="D446" s="94" t="s">
+      <c r="C446" s="81"/>
+      <c r="D446" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E446" s="94"/>
-      <c r="F446" s="94"/>
+      <c r="E446" s="81"/>
+      <c r="F446" s="81"/>
       <c r="G446" s="27"/>
       <c r="H446" s="27"/>
       <c r="I446" s="27"/>
@@ -10760,15 +10760,15 @@
       <c r="A447" s="32">
         <v>1</v>
       </c>
-      <c r="B447" s="90" t="s">
+      <c r="B447" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C447" s="90"/>
-      <c r="D447" s="90" t="s">
+      <c r="C447" s="96"/>
+      <c r="D447" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="E447" s="90"/>
-      <c r="F447" s="90"/>
+      <c r="E447" s="96"/>
+      <c r="F447" s="96"/>
       <c r="G447" s="27"/>
       <c r="H447" s="27"/>
       <c r="I447" s="27"/>
@@ -10776,21 +10776,21 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448" s="34"/>
-      <c r="B448" s="91"/>
-      <c r="C448" s="91"/>
-      <c r="D448" s="91"/>
-      <c r="E448" s="91"/>
-      <c r="F448" s="91"/>
+      <c r="B448" s="97"/>
+      <c r="C448" s="97"/>
+      <c r="D448" s="97"/>
+      <c r="E448" s="97"/>
+      <c r="F448" s="97"/>
       <c r="G448" s="26"/>
       <c r="H448" s="26"/>
       <c r="I448" s="26"/>
       <c r="J448" s="26"/>
     </row>
     <row r="449" spans="1:10" ht="15">
-      <c r="A449" s="92" t="s">
+      <c r="A449" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B449" s="92"/>
+      <c r="B449" s="82"/>
       <c r="C449" s="26" t="s">
         <v>159</v>
       </c>
@@ -10806,56 +10806,56 @@
       <c r="C450" s="34"/>
     </row>
     <row r="451" spans="1:10">
-      <c r="A451" s="80" t="s">
+      <c r="A451" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B451" s="80" t="s">
+      <c r="B451" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C451" s="81"/>
-      <c r="D451" s="83" t="s">
+      <c r="C451" s="84"/>
+      <c r="D451" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E451" s="84"/>
-      <c r="F451" s="86" t="s">
+      <c r="E451" s="87"/>
+      <c r="F451" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G451" s="87"/>
-      <c r="H451" s="80" t="s">
+      <c r="G451" s="90"/>
+      <c r="H451" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I451" s="80"/>
-      <c r="J451" s="80"/>
+      <c r="I451" s="83"/>
+      <c r="J451" s="83"/>
     </row>
     <row r="452" spans="1:10">
-      <c r="A452" s="81"/>
-      <c r="B452" s="82"/>
-      <c r="C452" s="82"/>
-      <c r="D452" s="85"/>
-      <c r="E452" s="85"/>
-      <c r="F452" s="88"/>
-      <c r="G452" s="89"/>
-      <c r="H452" s="80"/>
-      <c r="I452" s="80"/>
-      <c r="J452" s="80"/>
+      <c r="A452" s="84"/>
+      <c r="B452" s="85"/>
+      <c r="C452" s="85"/>
+      <c r="D452" s="88"/>
+      <c r="E452" s="88"/>
+      <c r="F452" s="91"/>
+      <c r="G452" s="92"/>
+      <c r="H452" s="83"/>
+      <c r="I452" s="83"/>
+      <c r="J452" s="83"/>
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="41">
         <v>1</v>
       </c>
-      <c r="B453" s="70" t="s">
+      <c r="B453" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C453" s="110"/>
-      <c r="D453" s="70" t="s">
+      <c r="D453" s="93" t="s">
         <v>192</v>
       </c>
       <c r="E453" s="110"/>
-      <c r="F453" s="71" t="s">
+      <c r="F453" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G453" s="72"/>
-      <c r="H453" s="70" t="s">
+      <c r="G453" s="95"/>
+      <c r="H453" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I453" s="111"/>
@@ -10986,37 +10986,37 @@
       <c r="A464" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B464" s="93" t="s">
+      <c r="B464" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C464" s="93"/>
-      <c r="D464" s="93"/>
-      <c r="E464" s="93"/>
-      <c r="F464" s="93"/>
+      <c r="C464" s="80"/>
+      <c r="D464" s="80"/>
+      <c r="E464" s="80"/>
+      <c r="F464" s="80"/>
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="32">
         <v>1</v>
       </c>
-      <c r="B465" s="90" t="s">
+      <c r="B465" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C465" s="90"/>
-      <c r="D465" s="90"/>
-      <c r="E465" s="90"/>
-      <c r="F465" s="90"/>
+      <c r="C465" s="96"/>
+      <c r="D465" s="96"/>
+      <c r="E465" s="96"/>
+      <c r="F465" s="96"/>
     </row>
     <row r="466" spans="1:10">
       <c r="A466" s="32">
         <v>2</v>
       </c>
-      <c r="B466" s="90" t="s">
+      <c r="B466" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C466" s="90"/>
-      <c r="D466" s="90"/>
-      <c r="E466" s="90"/>
-      <c r="F466" s="90"/>
+      <c r="C466" s="96"/>
+      <c r="D466" s="96"/>
+      <c r="E466" s="96"/>
+      <c r="F466" s="96"/>
       <c r="G466" s="27"/>
       <c r="H466" s="27"/>
       <c r="I466" s="27"/>
@@ -11038,15 +11038,15 @@
       <c r="A468" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B468" s="94" t="s">
+      <c r="B468" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C468" s="94"/>
-      <c r="D468" s="94" t="s">
+      <c r="C468" s="81"/>
+      <c r="D468" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E468" s="94"/>
-      <c r="F468" s="94"/>
+      <c r="E468" s="81"/>
+      <c r="F468" s="81"/>
       <c r="G468" s="27"/>
       <c r="H468" s="27"/>
       <c r="I468" s="27"/>
@@ -11056,15 +11056,15 @@
       <c r="A469" s="32">
         <v>1</v>
       </c>
-      <c r="B469" s="90" t="s">
+      <c r="B469" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C469" s="90"/>
-      <c r="D469" s="90" t="s">
+      <c r="C469" s="96"/>
+      <c r="D469" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="E469" s="90"/>
-      <c r="F469" s="90"/>
+      <c r="E469" s="96"/>
+      <c r="F469" s="96"/>
       <c r="G469" s="27"/>
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
@@ -11072,21 +11072,21 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470" s="34"/>
-      <c r="B470" s="91"/>
-      <c r="C470" s="91"/>
-      <c r="D470" s="91"/>
-      <c r="E470" s="91"/>
-      <c r="F470" s="91"/>
+      <c r="B470" s="97"/>
+      <c r="C470" s="97"/>
+      <c r="D470" s="97"/>
+      <c r="E470" s="97"/>
+      <c r="F470" s="97"/>
       <c r="G470" s="26"/>
       <c r="H470" s="26"/>
       <c r="I470" s="26"/>
       <c r="J470" s="26"/>
     </row>
     <row r="471" spans="1:10" ht="15">
-      <c r="A471" s="92" t="s">
+      <c r="A471" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B471" s="92"/>
+      <c r="B471" s="82"/>
       <c r="C471" s="26" t="s">
         <v>159</v>
       </c>
@@ -11102,56 +11102,56 @@
       <c r="C472" s="34"/>
     </row>
     <row r="473" spans="1:10">
-      <c r="A473" s="80" t="s">
+      <c r="A473" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B473" s="80" t="s">
+      <c r="B473" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C473" s="81"/>
-      <c r="D473" s="83" t="s">
+      <c r="C473" s="84"/>
+      <c r="D473" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E473" s="84"/>
-      <c r="F473" s="86" t="s">
+      <c r="E473" s="87"/>
+      <c r="F473" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G473" s="87"/>
-      <c r="H473" s="80" t="s">
+      <c r="G473" s="90"/>
+      <c r="H473" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I473" s="80"/>
-      <c r="J473" s="80"/>
+      <c r="I473" s="83"/>
+      <c r="J473" s="83"/>
     </row>
     <row r="474" spans="1:10">
-      <c r="A474" s="81"/>
-      <c r="B474" s="82"/>
-      <c r="C474" s="82"/>
-      <c r="D474" s="85"/>
-      <c r="E474" s="85"/>
-      <c r="F474" s="88"/>
-      <c r="G474" s="89"/>
-      <c r="H474" s="80"/>
-      <c r="I474" s="80"/>
-      <c r="J474" s="80"/>
+      <c r="A474" s="84"/>
+      <c r="B474" s="85"/>
+      <c r="C474" s="85"/>
+      <c r="D474" s="88"/>
+      <c r="E474" s="88"/>
+      <c r="F474" s="91"/>
+      <c r="G474" s="92"/>
+      <c r="H474" s="83"/>
+      <c r="I474" s="83"/>
+      <c r="J474" s="83"/>
     </row>
     <row r="475" spans="1:10">
       <c r="A475" s="41">
         <v>1</v>
       </c>
-      <c r="B475" s="70" t="s">
+      <c r="B475" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C475" s="110"/>
-      <c r="D475" s="70" t="s">
+      <c r="D475" s="93" t="s">
         <v>192</v>
       </c>
       <c r="E475" s="110"/>
-      <c r="F475" s="71" t="s">
+      <c r="F475" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G475" s="72"/>
-      <c r="H475" s="70" t="s">
+      <c r="G475" s="95"/>
+      <c r="H475" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I475" s="111"/>
@@ -11282,37 +11282,37 @@
       <c r="A486" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B486" s="93" t="s">
+      <c r="B486" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C486" s="93"/>
-      <c r="D486" s="93"/>
-      <c r="E486" s="93"/>
-      <c r="F486" s="93"/>
+      <c r="C486" s="80"/>
+      <c r="D486" s="80"/>
+      <c r="E486" s="80"/>
+      <c r="F486" s="80"/>
     </row>
     <row r="487" spans="1:10">
       <c r="A487" s="32">
         <v>1</v>
       </c>
-      <c r="B487" s="90" t="s">
+      <c r="B487" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C487" s="90"/>
-      <c r="D487" s="90"/>
-      <c r="E487" s="90"/>
-      <c r="F487" s="90"/>
+      <c r="C487" s="96"/>
+      <c r="D487" s="96"/>
+      <c r="E487" s="96"/>
+      <c r="F487" s="96"/>
     </row>
     <row r="488" spans="1:10">
       <c r="A488" s="32">
         <v>2</v>
       </c>
-      <c r="B488" s="90" t="s">
+      <c r="B488" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C488" s="90"/>
-      <c r="D488" s="90"/>
-      <c r="E488" s="90"/>
-      <c r="F488" s="90"/>
+      <c r="C488" s="96"/>
+      <c r="D488" s="96"/>
+      <c r="E488" s="96"/>
+      <c r="F488" s="96"/>
       <c r="G488" s="27"/>
       <c r="H488" s="27"/>
       <c r="I488" s="27"/>
@@ -11334,15 +11334,15 @@
       <c r="A490" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B490" s="94" t="s">
+      <c r="B490" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C490" s="94"/>
-      <c r="D490" s="94" t="s">
+      <c r="C490" s="81"/>
+      <c r="D490" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E490" s="94"/>
-      <c r="F490" s="94"/>
+      <c r="E490" s="81"/>
+      <c r="F490" s="81"/>
       <c r="G490" s="27"/>
       <c r="H490" s="27"/>
       <c r="I490" s="27"/>
@@ -11352,15 +11352,15 @@
       <c r="A491" s="32">
         <v>1</v>
       </c>
-      <c r="B491" s="90" t="s">
+      <c r="B491" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C491" s="90"/>
-      <c r="D491" s="90" t="s">
+      <c r="C491" s="96"/>
+      <c r="D491" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="E491" s="90"/>
-      <c r="F491" s="90"/>
+      <c r="E491" s="96"/>
+      <c r="F491" s="96"/>
       <c r="G491" s="27"/>
       <c r="H491" s="27"/>
       <c r="I491" s="27"/>
@@ -11368,21 +11368,21 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492" s="34"/>
-      <c r="B492" s="91"/>
-      <c r="C492" s="91"/>
-      <c r="D492" s="91"/>
-      <c r="E492" s="91"/>
-      <c r="F492" s="91"/>
+      <c r="B492" s="97"/>
+      <c r="C492" s="97"/>
+      <c r="D492" s="97"/>
+      <c r="E492" s="97"/>
+      <c r="F492" s="97"/>
       <c r="G492" s="26"/>
       <c r="H492" s="26"/>
       <c r="I492" s="26"/>
       <c r="J492" s="26"/>
     </row>
     <row r="493" spans="1:10" ht="15">
-      <c r="A493" s="92" t="s">
+      <c r="A493" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B493" s="92"/>
+      <c r="B493" s="82"/>
       <c r="C493" s="26" t="s">
         <v>159</v>
       </c>
@@ -11398,56 +11398,56 @@
       <c r="C494" s="34"/>
     </row>
     <row r="495" spans="1:10">
-      <c r="A495" s="80" t="s">
+      <c r="A495" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B495" s="80" t="s">
+      <c r="B495" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C495" s="81"/>
-      <c r="D495" s="83" t="s">
+      <c r="C495" s="84"/>
+      <c r="D495" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E495" s="84"/>
-      <c r="F495" s="86" t="s">
+      <c r="E495" s="87"/>
+      <c r="F495" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G495" s="87"/>
-      <c r="H495" s="80" t="s">
+      <c r="G495" s="90"/>
+      <c r="H495" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I495" s="80"/>
-      <c r="J495" s="80"/>
+      <c r="I495" s="83"/>
+      <c r="J495" s="83"/>
     </row>
     <row r="496" spans="1:10">
-      <c r="A496" s="81"/>
-      <c r="B496" s="82"/>
-      <c r="C496" s="82"/>
-      <c r="D496" s="85"/>
-      <c r="E496" s="85"/>
-      <c r="F496" s="88"/>
-      <c r="G496" s="89"/>
-      <c r="H496" s="80"/>
-      <c r="I496" s="80"/>
-      <c r="J496" s="80"/>
+      <c r="A496" s="84"/>
+      <c r="B496" s="85"/>
+      <c r="C496" s="85"/>
+      <c r="D496" s="88"/>
+      <c r="E496" s="88"/>
+      <c r="F496" s="91"/>
+      <c r="G496" s="92"/>
+      <c r="H496" s="83"/>
+      <c r="I496" s="83"/>
+      <c r="J496" s="83"/>
     </row>
     <row r="497" spans="1:10">
       <c r="A497" s="41">
         <v>1</v>
       </c>
-      <c r="B497" s="70" t="s">
+      <c r="B497" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C497" s="110"/>
-      <c r="D497" s="70" t="s">
+      <c r="D497" s="93" t="s">
         <v>202</v>
       </c>
       <c r="E497" s="110"/>
-      <c r="F497" s="71" t="s">
+      <c r="F497" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G497" s="72"/>
-      <c r="H497" s="70" t="s">
+      <c r="G497" s="95"/>
+      <c r="H497" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I497" s="111"/>
@@ -11578,37 +11578,37 @@
       <c r="A508" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B508" s="93" t="s">
+      <c r="B508" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C508" s="93"/>
-      <c r="D508" s="93"/>
-      <c r="E508" s="93"/>
-      <c r="F508" s="93"/>
+      <c r="C508" s="80"/>
+      <c r="D508" s="80"/>
+      <c r="E508" s="80"/>
+      <c r="F508" s="80"/>
     </row>
     <row r="509" spans="1:10">
       <c r="A509" s="32">
         <v>1</v>
       </c>
-      <c r="B509" s="90" t="s">
+      <c r="B509" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C509" s="90"/>
-      <c r="D509" s="90"/>
-      <c r="E509" s="90"/>
-      <c r="F509" s="90"/>
+      <c r="C509" s="96"/>
+      <c r="D509" s="96"/>
+      <c r="E509" s="96"/>
+      <c r="F509" s="96"/>
     </row>
     <row r="510" spans="1:10">
       <c r="A510" s="32">
         <v>2</v>
       </c>
-      <c r="B510" s="90" t="s">
+      <c r="B510" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C510" s="90"/>
-      <c r="D510" s="90"/>
-      <c r="E510" s="90"/>
-      <c r="F510" s="90"/>
+      <c r="C510" s="96"/>
+      <c r="D510" s="96"/>
+      <c r="E510" s="96"/>
+      <c r="F510" s="96"/>
       <c r="G510" s="27"/>
       <c r="H510" s="27"/>
       <c r="I510" s="27"/>
@@ -11630,15 +11630,15 @@
       <c r="A512" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B512" s="94" t="s">
+      <c r="B512" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C512" s="94"/>
-      <c r="D512" s="94" t="s">
+      <c r="C512" s="81"/>
+      <c r="D512" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E512" s="94"/>
-      <c r="F512" s="94"/>
+      <c r="E512" s="81"/>
+      <c r="F512" s="81"/>
       <c r="G512" s="27"/>
       <c r="H512" s="27"/>
       <c r="I512" s="27"/>
@@ -11648,15 +11648,15 @@
       <c r="A513" s="32">
         <v>1</v>
       </c>
-      <c r="B513" s="90" t="s">
+      <c r="B513" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C513" s="90"/>
-      <c r="D513" s="90" t="s">
+      <c r="C513" s="96"/>
+      <c r="D513" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="E513" s="90"/>
-      <c r="F513" s="90"/>
+      <c r="E513" s="96"/>
+      <c r="F513" s="96"/>
       <c r="G513" s="27"/>
       <c r="H513" s="27"/>
       <c r="I513" s="27"/>
@@ -11664,21 +11664,21 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514" s="34"/>
-      <c r="B514" s="91"/>
-      <c r="C514" s="91"/>
-      <c r="D514" s="91"/>
-      <c r="E514" s="91"/>
-      <c r="F514" s="91"/>
+      <c r="B514" s="97"/>
+      <c r="C514" s="97"/>
+      <c r="D514" s="97"/>
+      <c r="E514" s="97"/>
+      <c r="F514" s="97"/>
       <c r="G514" s="26"/>
       <c r="H514" s="26"/>
       <c r="I514" s="26"/>
       <c r="J514" s="26"/>
     </row>
     <row r="515" spans="1:10" ht="15">
-      <c r="A515" s="92" t="s">
+      <c r="A515" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B515" s="92"/>
+      <c r="B515" s="82"/>
       <c r="C515" s="26" t="s">
         <v>159</v>
       </c>
@@ -11694,56 +11694,56 @@
       <c r="C516" s="34"/>
     </row>
     <row r="517" spans="1:10">
-      <c r="A517" s="80" t="s">
+      <c r="A517" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B517" s="80" t="s">
+      <c r="B517" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C517" s="81"/>
-      <c r="D517" s="83" t="s">
+      <c r="C517" s="84"/>
+      <c r="D517" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E517" s="84"/>
-      <c r="F517" s="86" t="s">
+      <c r="E517" s="87"/>
+      <c r="F517" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G517" s="87"/>
-      <c r="H517" s="80" t="s">
+      <c r="G517" s="90"/>
+      <c r="H517" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I517" s="80"/>
-      <c r="J517" s="80"/>
+      <c r="I517" s="83"/>
+      <c r="J517" s="83"/>
     </row>
     <row r="518" spans="1:10">
-      <c r="A518" s="81"/>
-      <c r="B518" s="82"/>
-      <c r="C518" s="82"/>
-      <c r="D518" s="85"/>
-      <c r="E518" s="85"/>
-      <c r="F518" s="88"/>
-      <c r="G518" s="89"/>
-      <c r="H518" s="80"/>
-      <c r="I518" s="80"/>
-      <c r="J518" s="80"/>
+      <c r="A518" s="84"/>
+      <c r="B518" s="85"/>
+      <c r="C518" s="85"/>
+      <c r="D518" s="88"/>
+      <c r="E518" s="88"/>
+      <c r="F518" s="91"/>
+      <c r="G518" s="92"/>
+      <c r="H518" s="83"/>
+      <c r="I518" s="83"/>
+      <c r="J518" s="83"/>
     </row>
     <row r="519" spans="1:10">
       <c r="A519" s="41">
         <v>1</v>
       </c>
-      <c r="B519" s="70" t="s">
+      <c r="B519" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C519" s="110"/>
-      <c r="D519" s="70" t="s">
+      <c r="D519" s="93" t="s">
         <v>202</v>
       </c>
       <c r="E519" s="110"/>
-      <c r="F519" s="71" t="s">
+      <c r="F519" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G519" s="72"/>
-      <c r="H519" s="70" t="s">
+      <c r="G519" s="95"/>
+      <c r="H519" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I519" s="111"/>
@@ -11874,37 +11874,37 @@
       <c r="A530" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B530" s="93" t="s">
+      <c r="B530" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C530" s="93"/>
-      <c r="D530" s="93"/>
-      <c r="E530" s="93"/>
-      <c r="F530" s="93"/>
+      <c r="C530" s="80"/>
+      <c r="D530" s="80"/>
+      <c r="E530" s="80"/>
+      <c r="F530" s="80"/>
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="32">
         <v>1</v>
       </c>
-      <c r="B531" s="90" t="s">
+      <c r="B531" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C531" s="90"/>
-      <c r="D531" s="90"/>
-      <c r="E531" s="90"/>
-      <c r="F531" s="90"/>
+      <c r="C531" s="96"/>
+      <c r="D531" s="96"/>
+      <c r="E531" s="96"/>
+      <c r="F531" s="96"/>
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="32">
         <v>2</v>
       </c>
-      <c r="B532" s="90" t="s">
+      <c r="B532" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C532" s="90"/>
-      <c r="D532" s="90"/>
-      <c r="E532" s="90"/>
-      <c r="F532" s="90"/>
+      <c r="C532" s="96"/>
+      <c r="D532" s="96"/>
+      <c r="E532" s="96"/>
+      <c r="F532" s="96"/>
       <c r="G532" s="27"/>
       <c r="H532" s="27"/>
       <c r="I532" s="27"/>
@@ -11926,15 +11926,15 @@
       <c r="A534" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B534" s="94" t="s">
+      <c r="B534" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C534" s="94"/>
-      <c r="D534" s="94" t="s">
+      <c r="C534" s="81"/>
+      <c r="D534" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E534" s="94"/>
-      <c r="F534" s="94"/>
+      <c r="E534" s="81"/>
+      <c r="F534" s="81"/>
       <c r="G534" s="27"/>
       <c r="H534" s="27"/>
       <c r="I534" s="27"/>
@@ -11944,15 +11944,15 @@
       <c r="A535" s="32">
         <v>1</v>
       </c>
-      <c r="B535" s="90" t="s">
+      <c r="B535" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C535" s="90"/>
-      <c r="D535" s="90" t="s">
+      <c r="C535" s="96"/>
+      <c r="D535" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="E535" s="90"/>
-      <c r="F535" s="90"/>
+      <c r="E535" s="96"/>
+      <c r="F535" s="96"/>
       <c r="G535" s="27"/>
       <c r="H535" s="27"/>
       <c r="I535" s="27"/>
@@ -11960,21 +11960,21 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="34"/>
-      <c r="B536" s="91"/>
-      <c r="C536" s="91"/>
-      <c r="D536" s="91"/>
-      <c r="E536" s="91"/>
-      <c r="F536" s="91"/>
+      <c r="B536" s="97"/>
+      <c r="C536" s="97"/>
+      <c r="D536" s="97"/>
+      <c r="E536" s="97"/>
+      <c r="F536" s="97"/>
       <c r="G536" s="26"/>
       <c r="H536" s="26"/>
       <c r="I536" s="26"/>
       <c r="J536" s="26"/>
     </row>
     <row r="537" spans="1:10" ht="15">
-      <c r="A537" s="92" t="s">
+      <c r="A537" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B537" s="92"/>
+      <c r="B537" s="82"/>
       <c r="C537" s="26" t="s">
         <v>159</v>
       </c>
@@ -11990,56 +11990,56 @@
       <c r="C538" s="34"/>
     </row>
     <row r="539" spans="1:10">
-      <c r="A539" s="80" t="s">
+      <c r="A539" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B539" s="80" t="s">
+      <c r="B539" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C539" s="81"/>
-      <c r="D539" s="83" t="s">
+      <c r="C539" s="84"/>
+      <c r="D539" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E539" s="84"/>
-      <c r="F539" s="86" t="s">
+      <c r="E539" s="87"/>
+      <c r="F539" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G539" s="87"/>
-      <c r="H539" s="80" t="s">
+      <c r="G539" s="90"/>
+      <c r="H539" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I539" s="80"/>
-      <c r="J539" s="80"/>
+      <c r="I539" s="83"/>
+      <c r="J539" s="83"/>
     </row>
     <row r="540" spans="1:10">
-      <c r="A540" s="81"/>
-      <c r="B540" s="82"/>
-      <c r="C540" s="82"/>
-      <c r="D540" s="85"/>
-      <c r="E540" s="85"/>
-      <c r="F540" s="88"/>
-      <c r="G540" s="89"/>
-      <c r="H540" s="80"/>
-      <c r="I540" s="80"/>
-      <c r="J540" s="80"/>
+      <c r="A540" s="84"/>
+      <c r="B540" s="85"/>
+      <c r="C540" s="85"/>
+      <c r="D540" s="88"/>
+      <c r="E540" s="88"/>
+      <c r="F540" s="91"/>
+      <c r="G540" s="92"/>
+      <c r="H540" s="83"/>
+      <c r="I540" s="83"/>
+      <c r="J540" s="83"/>
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="41">
         <v>1</v>
       </c>
-      <c r="B541" s="70" t="s">
+      <c r="B541" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C541" s="110"/>
-      <c r="D541" s="70" t="s">
+      <c r="D541" s="93" t="s">
         <v>202</v>
       </c>
       <c r="E541" s="110"/>
-      <c r="F541" s="71" t="s">
+      <c r="F541" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="G541" s="72"/>
-      <c r="H541" s="70" t="s">
+      <c r="G541" s="95"/>
+      <c r="H541" s="93" t="s">
         <v>95</v>
       </c>
       <c r="I541" s="111"/>
@@ -12047,232 +12047,442 @@
     </row>
   </sheetData>
   <mergeCells count="700">
-    <mergeCell ref="A523:B523"/>
-    <mergeCell ref="D523:E523"/>
-    <mergeCell ref="F524:G524"/>
-    <mergeCell ref="A526:B526"/>
-    <mergeCell ref="A528:B528"/>
-    <mergeCell ref="D528:E528"/>
-    <mergeCell ref="F528:G528"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B534:C534"/>
-    <mergeCell ref="D534:F534"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A506:B506"/>
-    <mergeCell ref="D506:E506"/>
-    <mergeCell ref="F506:G506"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B512:C512"/>
-    <mergeCell ref="D512:F512"/>
-    <mergeCell ref="A515:B515"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:C518"/>
-    <mergeCell ref="D517:E518"/>
-    <mergeCell ref="F517:G518"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="D479:E479"/>
-    <mergeCell ref="F480:G480"/>
-    <mergeCell ref="A482:B482"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="D484:E484"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B490:C490"/>
-    <mergeCell ref="D490:F490"/>
-    <mergeCell ref="A460:B460"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="D462:E462"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B468:C468"/>
-    <mergeCell ref="D468:F468"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="B473:C474"/>
-    <mergeCell ref="D473:E474"/>
-    <mergeCell ref="F473:G474"/>
-    <mergeCell ref="B446:C446"/>
-    <mergeCell ref="D446:F446"/>
-    <mergeCell ref="A449:B449"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:C452"/>
-    <mergeCell ref="D451:E452"/>
-    <mergeCell ref="F451:G452"/>
-    <mergeCell ref="H451:J452"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="D453:E453"/>
-    <mergeCell ref="F453:G453"/>
-    <mergeCell ref="H453:J453"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:E431"/>
-    <mergeCell ref="F431:G431"/>
-    <mergeCell ref="H431:J431"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="D435:E435"/>
-    <mergeCell ref="F436:G436"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="D440:E440"/>
-    <mergeCell ref="F440:G440"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="D424:F424"/>
-    <mergeCell ref="A427:B427"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="B429:C430"/>
-    <mergeCell ref="D429:E430"/>
-    <mergeCell ref="F429:G430"/>
-    <mergeCell ref="H429:J430"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="H107:J108"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="D413:E413"/>
-    <mergeCell ref="F414:G414"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="A418:B418"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="F418:G418"/>
-    <mergeCell ref="H85:J86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:C200"/>
-    <mergeCell ref="D199:E200"/>
-    <mergeCell ref="F199:G200"/>
-    <mergeCell ref="H176:J177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:C132"/>
-    <mergeCell ref="D131:E132"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:C177"/>
-    <mergeCell ref="D176:E177"/>
-    <mergeCell ref="F176:G177"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B223:C224"/>
-    <mergeCell ref="D223:E224"/>
-    <mergeCell ref="F223:G224"/>
-    <mergeCell ref="H223:J224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:J225"/>
+    <mergeCell ref="B541:C541"/>
+    <mergeCell ref="D541:E541"/>
+    <mergeCell ref="F541:G541"/>
+    <mergeCell ref="H539:J540"/>
+    <mergeCell ref="H541:J541"/>
+    <mergeCell ref="B535:C535"/>
+    <mergeCell ref="D535:F535"/>
+    <mergeCell ref="B536:C536"/>
+    <mergeCell ref="D536:F536"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="A539:A540"/>
+    <mergeCell ref="B539:C540"/>
+    <mergeCell ref="D539:E540"/>
+    <mergeCell ref="F539:G540"/>
+    <mergeCell ref="H517:J518"/>
+    <mergeCell ref="B519:C519"/>
+    <mergeCell ref="D519:E519"/>
+    <mergeCell ref="F519:G519"/>
+    <mergeCell ref="H519:J519"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="A524:B524"/>
+    <mergeCell ref="D524:E524"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B497:C497"/>
+    <mergeCell ref="D497:E497"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="A502:B502"/>
+    <mergeCell ref="D502:E502"/>
+    <mergeCell ref="H495:J496"/>
+    <mergeCell ref="H497:J497"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="D501:E501"/>
+    <mergeCell ref="F502:G502"/>
+    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="D491:F491"/>
+    <mergeCell ref="B492:C492"/>
+    <mergeCell ref="D492:F492"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="A495:A496"/>
+    <mergeCell ref="B495:C496"/>
+    <mergeCell ref="D495:E496"/>
+    <mergeCell ref="F495:G496"/>
+    <mergeCell ref="H473:J474"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D475:E475"/>
+    <mergeCell ref="F475:G475"/>
+    <mergeCell ref="H475:J475"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="D480:E480"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="D458:E458"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="D457:E457"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="D469:F469"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="D470:F470"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="A414:B414"/>
+    <mergeCell ref="D414:E414"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="B407:C408"/>
+    <mergeCell ref="D407:E408"/>
+    <mergeCell ref="F407:G408"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="D447:F447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="D448:F448"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="D381:F381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="B384:C385"/>
+    <mergeCell ref="D384:E385"/>
+    <mergeCell ref="F384:G385"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="A392:B392"/>
+    <mergeCell ref="D392:E392"/>
+    <mergeCell ref="F392:G392"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="H199:J200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:C154"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="F153:G154"/>
+    <mergeCell ref="H153:J154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="H131:J132"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="D436:E436"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="H407:J408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="H409:J409"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="B404:C404"/>
+    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="H384:J385"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="H386:J386"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="F373:G373"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="F369:G369"/>
+    <mergeCell ref="H361:J362"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="D363:E363"/>
+    <mergeCell ref="F363:G363"/>
+    <mergeCell ref="H363:J363"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:C362"/>
+    <mergeCell ref="D361:E362"/>
+    <mergeCell ref="F361:G362"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="B338:C339"/>
+    <mergeCell ref="D338:E339"/>
+    <mergeCell ref="F338:G339"/>
+    <mergeCell ref="H338:J339"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="F327:G327"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="B315:C316"/>
+    <mergeCell ref="D315:E316"/>
+    <mergeCell ref="F315:G316"/>
+    <mergeCell ref="H315:J316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:J317"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:C293"/>
+    <mergeCell ref="D292:E293"/>
+    <mergeCell ref="F292:G293"/>
+    <mergeCell ref="H292:J293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="F277:G277"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:C270"/>
+    <mergeCell ref="D269:E270"/>
+    <mergeCell ref="F269:G270"/>
+    <mergeCell ref="H269:J270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="H271:J271"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:J249"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:C247"/>
+    <mergeCell ref="D246:E247"/>
+    <mergeCell ref="F246:G247"/>
+    <mergeCell ref="H246:J247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="H248:J248"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:C108"/>
+    <mergeCell ref="D107:E108"/>
+    <mergeCell ref="I327:K327"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="I258:K258"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="I281:K281"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="I304:K304"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:C86"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B226:C226"/>
     <mergeCell ref="D226:E226"/>
     <mergeCell ref="F226:G226"/>
@@ -12297,456 +12507,246 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B223:C224"/>
+    <mergeCell ref="D223:E224"/>
+    <mergeCell ref="F223:G224"/>
+    <mergeCell ref="H223:J224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:J225"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:C177"/>
+    <mergeCell ref="D176:E177"/>
+    <mergeCell ref="F176:G177"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:C132"/>
+    <mergeCell ref="D131:E132"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:C86"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="I327:K327"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:C108"/>
-    <mergeCell ref="D107:E108"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="I258:K258"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="I281:K281"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="I304:K304"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:C247"/>
-    <mergeCell ref="D246:E247"/>
-    <mergeCell ref="F246:G247"/>
-    <mergeCell ref="H246:J247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="H248:J248"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="H269:J270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="H271:J271"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="F277:G277"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:C270"/>
-    <mergeCell ref="D269:E270"/>
-    <mergeCell ref="F269:G270"/>
-    <mergeCell ref="H292:J293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:C293"/>
-    <mergeCell ref="D292:E293"/>
-    <mergeCell ref="F292:G293"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="B315:C316"/>
-    <mergeCell ref="D315:E316"/>
-    <mergeCell ref="F315:G316"/>
-    <mergeCell ref="H315:J316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:J317"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="F327:G327"/>
-    <mergeCell ref="H340:J340"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="B338:C339"/>
-    <mergeCell ref="D338:E339"/>
-    <mergeCell ref="F338:G339"/>
-    <mergeCell ref="H338:J339"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="H361:J362"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="D363:E363"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="H363:J363"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="F373:G373"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="F369:G369"/>
-    <mergeCell ref="H384:J385"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="H386:J386"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="H407:J408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="D409:E409"/>
-    <mergeCell ref="F409:G409"/>
-    <mergeCell ref="H409:J409"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="A436:B436"/>
-    <mergeCell ref="D436:E436"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="H131:J132"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:C154"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="F153:G154"/>
-    <mergeCell ref="H153:J154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="H199:J200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:C362"/>
-    <mergeCell ref="D361:E362"/>
-    <mergeCell ref="F361:G362"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="A394:B394"/>
-    <mergeCell ref="A396:B396"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="D381:F381"/>
-    <mergeCell ref="A382:B382"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="B384:C385"/>
-    <mergeCell ref="D384:E385"/>
-    <mergeCell ref="F384:G385"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="D391:E391"/>
-    <mergeCell ref="A392:B392"/>
-    <mergeCell ref="D392:E392"/>
-    <mergeCell ref="F392:G392"/>
+    <mergeCell ref="H85:J86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="H107:J108"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="D413:E413"/>
+    <mergeCell ref="F414:G414"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="A418:B418"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="F418:G418"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:C200"/>
+    <mergeCell ref="D199:E200"/>
+    <mergeCell ref="F199:G200"/>
+    <mergeCell ref="H176:J177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="D424:F424"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="A429:A430"/>
+    <mergeCell ref="B429:C430"/>
+    <mergeCell ref="D429:E430"/>
+    <mergeCell ref="F429:G430"/>
+    <mergeCell ref="H429:J430"/>
     <mergeCell ref="B425:C425"/>
     <mergeCell ref="D425:F425"/>
     <mergeCell ref="B426:C426"/>
     <mergeCell ref="D426:F426"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="B404:C404"/>
-    <mergeCell ref="D404:F404"/>
-    <mergeCell ref="A405:B405"/>
     <mergeCell ref="B421:F421"/>
-    <mergeCell ref="A414:B414"/>
-    <mergeCell ref="D414:E414"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="B407:C408"/>
-    <mergeCell ref="D407:E408"/>
-    <mergeCell ref="F407:G408"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="D447:F447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="D448:F448"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="D458:E458"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="D457:E457"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="D469:F469"/>
-    <mergeCell ref="B470:C470"/>
-    <mergeCell ref="D470:F470"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="H473:J474"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D475:E475"/>
-    <mergeCell ref="F475:G475"/>
-    <mergeCell ref="H475:J475"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="A480:B480"/>
-    <mergeCell ref="D480:E480"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B491:C491"/>
-    <mergeCell ref="D491:F491"/>
-    <mergeCell ref="B492:C492"/>
-    <mergeCell ref="D492:F492"/>
-    <mergeCell ref="A493:B493"/>
-    <mergeCell ref="A495:A496"/>
-    <mergeCell ref="B495:C496"/>
-    <mergeCell ref="D495:E496"/>
-    <mergeCell ref="F495:G496"/>
-    <mergeCell ref="B497:C497"/>
-    <mergeCell ref="D497:E497"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="A502:B502"/>
-    <mergeCell ref="D502:E502"/>
-    <mergeCell ref="H495:J496"/>
-    <mergeCell ref="H497:J497"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="D501:E501"/>
-    <mergeCell ref="F502:G502"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:E431"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="H431:J431"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="D435:E435"/>
+    <mergeCell ref="F436:G436"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="D440:E440"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="B446:C446"/>
+    <mergeCell ref="D446:F446"/>
+    <mergeCell ref="A449:B449"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:C452"/>
+    <mergeCell ref="D451:E452"/>
+    <mergeCell ref="F451:G452"/>
+    <mergeCell ref="H451:J452"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="D453:E453"/>
+    <mergeCell ref="F453:G453"/>
+    <mergeCell ref="H453:J453"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="D462:E462"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="D468:F468"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="B473:C474"/>
+    <mergeCell ref="D473:E474"/>
+    <mergeCell ref="F473:G474"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="D479:E479"/>
+    <mergeCell ref="F480:G480"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="D484:E484"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B490:C490"/>
+    <mergeCell ref="D490:F490"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A506:B506"/>
+    <mergeCell ref="D506:E506"/>
+    <mergeCell ref="F506:G506"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B512:C512"/>
+    <mergeCell ref="D512:F512"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:C518"/>
+    <mergeCell ref="D517:E518"/>
+    <mergeCell ref="F517:G518"/>
     <mergeCell ref="B510:F510"/>
     <mergeCell ref="B513:C513"/>
     <mergeCell ref="D513:F513"/>
     <mergeCell ref="B514:C514"/>
     <mergeCell ref="D514:F514"/>
     <mergeCell ref="B509:F509"/>
-    <mergeCell ref="H517:J518"/>
-    <mergeCell ref="B519:C519"/>
-    <mergeCell ref="D519:E519"/>
-    <mergeCell ref="F519:G519"/>
-    <mergeCell ref="H519:J519"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="A524:B524"/>
-    <mergeCell ref="D524:E524"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B535:C535"/>
-    <mergeCell ref="D535:F535"/>
-    <mergeCell ref="B536:C536"/>
-    <mergeCell ref="D536:F536"/>
-    <mergeCell ref="A537:B537"/>
-    <mergeCell ref="A539:A540"/>
-    <mergeCell ref="B539:C540"/>
-    <mergeCell ref="D539:E540"/>
-    <mergeCell ref="F539:G540"/>
-    <mergeCell ref="B541:C541"/>
-    <mergeCell ref="D541:E541"/>
-    <mergeCell ref="F541:G541"/>
-    <mergeCell ref="H539:J540"/>
-    <mergeCell ref="H541:J541"/>
+    <mergeCell ref="A523:B523"/>
+    <mergeCell ref="D523:E523"/>
+    <mergeCell ref="F524:G524"/>
+    <mergeCell ref="A526:B526"/>
+    <mergeCell ref="A528:B528"/>
+    <mergeCell ref="D528:E528"/>
+    <mergeCell ref="F528:G528"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B534:C534"/>
+    <mergeCell ref="D534:F534"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12754,12 +12754,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12877,13 +12874,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12891,5 +12891,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}"/>
 </file>